--- a/Arduino/DiceStateGenerators v2.xlsx
+++ b/Arduino/DiceStateGenerators v2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aernoutvanrossum/Github/Quantum-Dice-by-UTwente/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A850A4-A96A-C14C-A02D-001165EF3543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320A26-D9B3-6A45-AC1D-A5EB70BADC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6480" yWindow="500" windowWidth="33280" windowHeight="21820" activeTab="2" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
   </bookViews>
@@ -581,7 +581,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -597,17 +597,14 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -946,7 +943,7 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -955,20 +952,20 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="20" customFormat="1">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1202,1475 +1199,1469 @@
   <dimension ref="A1:AA43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <selection sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="16.83203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="13.33203125" style="15" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="15"/>
-    <col min="6" max="6" width="22.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="15"/>
-    <col min="8" max="8" width="21.5" style="15" customWidth="1"/>
-    <col min="9" max="9" width="18.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="75.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.1640625" style="15" customWidth="1"/>
-    <col min="12" max="15" width="10.83203125" style="15"/>
-    <col min="16" max="16" width="20.6640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="25.1640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="24.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.83203125" style="15"/>
-    <col min="20" max="20" width="79.33203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="38.33203125" style="15" customWidth="1"/>
-    <col min="22" max="22" width="32" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="47" style="15" customWidth="1"/>
-    <col min="24" max="24" width="43.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="10.83203125" style="15"/>
-    <col min="27" max="27" width="68" style="15" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="10.83203125" style="15"/>
+    <col min="1" max="1" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="16.83203125" customWidth="1"/>
+    <col min="4" max="4" width="13.33203125" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.5" customWidth="1"/>
+    <col min="9" max="9" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
+    <col min="16" max="16" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="25.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="79.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="38.33203125" customWidth="1"/>
+    <col min="22" max="22" width="32" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="47" customWidth="1"/>
+    <col min="24" max="24" width="43.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="68" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="51">
-      <c r="A1" s="15" t="s">
+      <c r="A1" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" t="s">
         <v>121</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" t="s">
         <v>120</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" t="s">
         <v>119</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" t="s">
         <v>118</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>82</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" t="s">
         <v>115</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" t="s">
         <v>113</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="Q1" t="s">
         <v>112</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="R1" t="s">
         <v>111</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="S1" t="s">
         <v>110</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" t="s">
         <v>138</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" t="s">
         <v>139</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" t="s">
         <v>138</v>
       </c>
-      <c r="X1" s="15" t="s">
+      <c r="X1" t="s">
         <v>139</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AA1" s="15" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:27" ht="19">
-      <c r="A2" s="15">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="15" t="str">
-        <f>B2&amp;","</f>
+      <c r="C2" t="str">
+        <f t="shared" ref="C2:C13" si="0">B2&amp;","</f>
         <v>IDLE,</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2">
         <v>0</v>
       </c>
-      <c r="F2" s="15" t="str">
-        <f t="shared" ref="F2:F24" si="0">VLOOKUP(E2,$A$2:$B$15,2)</f>
+      <c r="F2" t="str">
+        <f t="shared" ref="F2:F24" si="1">VLOOKUP(E2,$A$2:$B$15,2)</f>
         <v>IDLE</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2">
         <v>9</v>
       </c>
-      <c r="H2" s="15" t="str">
-        <f t="shared" ref="H2:H24" si="1">VLOOKUP(G2,$A$2:$B$15,2)</f>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H24" si="2">VLOOKUP(G2,$A$2:$B$15,2)</f>
         <v>CLASSIC_STATE</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" t="s">
         <v>98</v>
       </c>
-      <c r="J2" s="18" t="str">
-        <f>$J$33&amp;F2&amp;$J$34&amp;I2&amp;$J$35&amp;H2&amp;$J$36</f>
+      <c r="J2" s="16" t="str">
+        <f t="shared" ref="J2:J26" si="3">$J$33&amp;F2&amp;$J$34&amp;I2&amp;$J$35&amp;H2&amp;$J$36</f>
         <v>{ State::IDLE, Trigger::timed,State::CLASSIC_STATE },</v>
       </c>
-      <c r="L2" s="19"/>
-      <c r="M2" s="15" t="s">
+      <c r="L2" s="17"/>
+      <c r="M2" t="s">
         <v>108</v>
       </c>
-      <c r="O2" s="15">
-        <f>A2</f>
+      <c r="O2">
+        <f t="shared" ref="O2:O11" si="4">A2</f>
         <v>0</v>
       </c>
-      <c r="P2" s="15" t="str">
-        <f>B2</f>
+      <c r="P2" t="str">
+        <f t="shared" ref="P2:P11" si="5">B2</f>
         <v>IDLE</v>
       </c>
-      <c r="Q2" s="15" t="str">
-        <f t="shared" ref="Q2:R11" si="2">Q$1&amp;$P2</f>
+      <c r="Q2" t="str">
+        <f t="shared" ref="Q2:R11" si="6">Q$1&amp;$P2</f>
         <v>enterIDLE</v>
       </c>
-      <c r="R2" s="15" t="str">
-        <f t="shared" si="2"/>
+      <c r="R2" t="str">
+        <f t="shared" si="6"/>
         <v>whileIDLE</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="15" t="str">
-        <f>$T$18&amp;Q2&amp;$T$19&amp;R2&amp;$T$20</f>
+      <c r="T2" t="str">
+        <f t="shared" ref="T2:T12" si="7">$T$18&amp;Q2&amp;$T$19&amp;R2&amp;$T$20</f>
         <v>{&amp;StateMachine::enterIDLE, &amp;StateMachine::whileIDLE},</v>
       </c>
-      <c r="U2" s="15" t="str">
-        <f t="shared" ref="U2:U11" si="3">"void "&amp;Q2&amp;"();"</f>
+      <c r="U2" t="str">
+        <f t="shared" ref="U2:U11" si="8">"void "&amp;Q2&amp;"();"</f>
         <v>void enterIDLE();</v>
       </c>
-      <c r="V2" s="15" t="str">
-        <f t="shared" ref="V2:V11" si="4">"void "&amp;R2&amp;"();"</f>
+      <c r="V2" t="str">
+        <f t="shared" ref="V2:V11" si="9">"void "&amp;R2&amp;"();"</f>
         <v>void whileIDLE();</v>
       </c>
-      <c r="W2" s="15" t="str">
-        <f t="shared" ref="W2:W11" si="5">"void StateMachine::"&amp;Q2&amp;"(){}"</f>
+      <c r="W2" t="str">
+        <f t="shared" ref="W2:W11" si="10">"void StateMachine::"&amp;Q2&amp;"(){}"</f>
         <v>void StateMachine::enterIDLE(){}</v>
       </c>
-      <c r="X2" s="15" t="str">
-        <f t="shared" ref="X2:X11" si="6">"void StateMachine::"&amp;R2&amp;"(){}"</f>
+      <c r="X2" t="str">
+        <f t="shared" ref="X2:X11" si="11">"void StateMachine::"&amp;R2&amp;"(){}"</f>
         <v>void StateMachine::whileIDLE(){}</v>
       </c>
-      <c r="AA2" s="15" t="str">
-        <f>$AA$32&amp;F2&amp;$AA$31&amp;H2&amp;$AA$33&amp;I2&amp;$AA$34</f>
+      <c r="AA2" t="str">
+        <f t="shared" ref="AA2:AA25" si="12">$AA$32&amp;F2&amp;$AA$31&amp;H2&amp;$AA$33&amp;I2&amp;$AA$34</f>
         <v>"IDLE" -&gt; "CLASSIC_STATE" [label = "(timed)"]</v>
       </c>
     </row>
     <row r="3" spans="1:27" ht="17">
-      <c r="A3" s="15">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="15" t="str">
-        <f>B3&amp;","</f>
+      <c r="C3" t="str">
+        <f t="shared" si="0"/>
         <v>INITSINGLE,</v>
       </c>
-      <c r="E3" s="15">
+      <c r="E3">
         <v>9</v>
       </c>
-      <c r="F3" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="F3" t="str">
+        <f t="shared" si="1"/>
         <v>CLASSIC_STATE</v>
       </c>
-      <c r="G3" s="15">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="15" t="str">
+      <c r="H3" t="str">
+        <f t="shared" si="2"/>
+        <v>INITSINGLE</v>
+      </c>
+      <c r="I3" t="s">
+        <v>104</v>
+      </c>
+      <c r="J3" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::CLASSIC_STATE, Trigger::buttonPressed,State::INITSINGLE },</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="P3" t="str">
+        <f t="shared" si="5"/>
+        <v>INITSINGLE</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" si="6"/>
+        <v>enterINITSINGLE</v>
+      </c>
+      <c r="R3" t="str">
+        <f t="shared" si="6"/>
+        <v>whileINITSINGLE</v>
+      </c>
+      <c r="S3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterINITSINGLE, &amp;StateMachine::whileINITSINGLE},</v>
+      </c>
+      <c r="U3" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterINITSINGLE();</v>
+      </c>
+      <c r="V3" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileINITSINGLE();</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterINITSINGLE(){}</v>
+      </c>
+      <c r="X3" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileINITSINGLE(){}</v>
+      </c>
+      <c r="AA3" t="str">
+        <f t="shared" si="12"/>
+        <v>"CLASSIC_STATE" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="17">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" t="str">
+        <f t="shared" si="0"/>
+        <v>INITENTANGLED_AB1,</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="str">
         <f t="shared" si="1"/>
         <v>INITSINGLE</v>
       </c>
-      <c r="I3" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J3" s="18" t="str">
-        <f>$J$33&amp;F3&amp;$J$34&amp;I3&amp;$J$35&amp;H3&amp;$J$36</f>
-        <v>{ State::CLASSIC_STATE, Trigger::buttonPressed,State::INITSINGLE },</v>
-      </c>
-      <c r="O3" s="15">
-        <f>A3</f>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="2"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITSINGLE, Trigger::timed,State::WAITFORTHROW },</v>
+      </c>
+      <c r="M4" t="s">
+        <v>105</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="P4" t="str">
+        <f t="shared" si="5"/>
+        <v>INITENTANGLED_AB1</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="6"/>
+        <v>enterINITENTANGLED_AB1</v>
+      </c>
+      <c r="R4" t="str">
+        <f t="shared" si="6"/>
+        <v>whileINITENTANGLED_AB1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterINITENTANGLED_AB1, &amp;StateMachine::whileINITENTANGLED_AB1},</v>
+      </c>
+      <c r="U4" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterINITENTANGLED_AB1();</v>
+      </c>
+      <c r="V4" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileINITENTANGLED_AB1();</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterINITENTANGLED_AB1(){}</v>
+      </c>
+      <c r="X4" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileINITENTANGLED_AB1(){}</v>
+      </c>
+      <c r="AA4" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITSINGLE" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="17">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="str">
+        <f t="shared" si="0"/>
+        <v>WAITFORTHROW,</v>
+      </c>
+      <c r="E5">
         <v>1</v>
       </c>
-      <c r="P3" s="15" t="str">
-        <f>B3</f>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
         <v>INITSINGLE</v>
       </c>
-      <c r="Q3" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterINITSINGLE</v>
-      </c>
-      <c r="R3" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileINITSINGLE</v>
-      </c>
-      <c r="S3" s="15" t="s">
+      <c r="G5">
+        <v>8</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I5" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITSINGLE, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="P5" t="str">
+        <f t="shared" si="5"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="6"/>
+        <v>enterWAITFORTHROW</v>
+      </c>
+      <c r="R5" t="str">
+        <f t="shared" si="6"/>
+        <v>whileWAITFORTHROW</v>
+      </c>
+      <c r="S5" t="s">
         <v>97</v>
       </c>
-      <c r="T3" s="15" t="str">
-        <f>$T$18&amp;Q3&amp;$T$19&amp;R3&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterINITSINGLE, &amp;StateMachine::whileINITSINGLE},</v>
-      </c>
-      <c r="U3" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterINITSINGLE();</v>
-      </c>
-      <c r="V3" s="15" t="str">
+      <c r="T5" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterWAITFORTHROW, &amp;StateMachine::whileWAITFORTHROW},</v>
+      </c>
+      <c r="U5" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterWAITFORTHROW();</v>
+      </c>
+      <c r="V5" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileWAITFORTHROW();</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterWAITFORTHROW(){}</v>
+      </c>
+      <c r="X5" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileWAITFORTHROW(){}</v>
+      </c>
+      <c r="AA5" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITSINGLE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="str">
+        <f t="shared" si="0"/>
+        <v>THROWING,</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>INITENTANGLED_AB1</v>
+      </c>
+      <c r="G6">
+        <v>8</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I6" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITENTANGLED_AB1, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="O6">
         <f t="shared" si="4"/>
-        <v>void whileINITSINGLE();</v>
-      </c>
-      <c r="W3" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterINITSINGLE(){}</v>
-      </c>
-      <c r="X3" s="15" t="str">
+        <v>5</v>
+      </c>
+      <c r="P6" t="str">
+        <f t="shared" si="5"/>
+        <v>THROWING</v>
+      </c>
+      <c r="Q6" t="str">
         <f t="shared" si="6"/>
-        <v>void StateMachine::whileINITSINGLE(){}</v>
-      </c>
-      <c r="AA3" s="15" t="str">
-        <f>$AA$32&amp;F3&amp;$AA$31&amp;H3&amp;$AA$33&amp;I3&amp;$AA$34</f>
-        <v>"CLASSIC_STATE" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="17">
-      <c r="A4" s="15">
+        <v>enterTHROWING</v>
+      </c>
+      <c r="R6" t="str">
+        <f t="shared" si="6"/>
+        <v>whileTHROWING</v>
+      </c>
+      <c r="S6" t="s">
+        <v>97</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterTHROWING, &amp;StateMachine::whileTHROWING},</v>
+      </c>
+      <c r="U6" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterTHROWING();</v>
+      </c>
+      <c r="V6" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileTHROWING();</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterTHROWING(){}</v>
+      </c>
+      <c r="X6" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileTHROWING(){}</v>
+      </c>
+      <c r="AA6" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITENTANGLED_AB1" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="str">
+        <f t="shared" si="0"/>
+        <v>INITMEASURED,</v>
+      </c>
+      <c r="E7">
         <v>2</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>B4&amp;","</f>
-        <v>INITENTANGLED_AB1,</v>
-      </c>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITSINGLE</v>
-      </c>
-      <c r="G4" s="15">
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>INITENTANGLED_AB1</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="2"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="I7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J7" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITENTANGLED_AB1, Trigger::timed,State::WAITFORTHROW },</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="P7" t="str">
+        <f t="shared" si="5"/>
+        <v>INITMEASURED</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>enterINITMEASURED</v>
+      </c>
+      <c r="R7" t="str">
+        <f t="shared" si="6"/>
+        <v>whileINITMEASURED</v>
+      </c>
+      <c r="S7" t="s">
+        <v>97</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterINITMEASURED, &amp;StateMachine::whileINITMEASURED},</v>
+      </c>
+      <c r="U7" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterINITMEASURED();</v>
+      </c>
+      <c r="V7" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileINITMEASURED();</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterINITMEASURED(){}</v>
+      </c>
+      <c r="X7" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileINITMEASURED(){}</v>
+      </c>
+      <c r="AA7" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITENTANGLED_AB1" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="17">
+      <c r="A8">
+        <v>8</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="str">
+        <f t="shared" si="0"/>
+        <v>LOWBATTERY,</v>
+      </c>
+      <c r="E8">
         <v>3</v>
       </c>
-      <c r="H4" s="15" t="str">
+      <c r="F8" t="str">
         <f t="shared" si="1"/>
         <v>WAITFORTHROW</v>
       </c>
-      <c r="I4" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J4" s="18" t="str">
-        <f>$J$33&amp;F4&amp;$J$34&amp;I4&amp;$J$35&amp;H4&amp;$J$36</f>
-        <v>{ State::INITSINGLE, Trigger::timed,State::WAITFORTHROW },</v>
-      </c>
-      <c r="M4" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="15">
-        <f>A4</f>
-        <v>2</v>
-      </c>
-      <c r="P4" s="15" t="str">
-        <f>B4</f>
-        <v>INITENTANGLED_AB1</v>
-      </c>
-      <c r="Q4" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterINITENTANGLED_AB1</v>
-      </c>
-      <c r="R4" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileINITENTANGLED_AB1</v>
-      </c>
-      <c r="S4" s="15" t="s">
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="2"/>
+        <v>INITSINGLE</v>
+      </c>
+      <c r="I8" t="s">
+        <v>104</v>
+      </c>
+      <c r="J8" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::buttonPressed,State::INITSINGLE },</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="P8" t="str">
+        <f t="shared" si="5"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>enterLOWBATTERY</v>
+      </c>
+      <c r="R8" t="str">
+        <f t="shared" si="6"/>
+        <v>whileLOWBATTERY</v>
+      </c>
+      <c r="S8" t="s">
         <v>97</v>
       </c>
-      <c r="T4" s="15" t="str">
-        <f>$T$18&amp;Q4&amp;$T$19&amp;R4&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterINITENTANGLED_AB1, &amp;StateMachine::whileINITENTANGLED_AB1},</v>
-      </c>
-      <c r="U4" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterINITENTANGLED_AB1();</v>
-      </c>
-      <c r="V4" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileINITENTANGLED_AB1();</v>
-      </c>
-      <c r="W4" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterINITENTANGLED_AB1(){}</v>
-      </c>
-      <c r="X4" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileINITENTANGLED_AB1(){}</v>
-      </c>
-      <c r="AA4" s="15" t="str">
-        <f>$AA$32&amp;F4&amp;$AA$31&amp;H4&amp;$AA$33&amp;I4&amp;$AA$34</f>
-        <v>"INITSINGLE" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="17">
-      <c r="A5" s="15">
+      <c r="T8" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterLOWBATTERY, &amp;StateMachine::whileLOWBATTERY},</v>
+      </c>
+      <c r="U8" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterLOWBATTERY();</v>
+      </c>
+      <c r="V8" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileLOWBATTERY();</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterLOWBATTERY(){}</v>
+      </c>
+      <c r="X8" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileLOWBATTERY(){}</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="17">
+      <c r="A9">
+        <v>9</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="str">
+        <f t="shared" si="0"/>
+        <v>CLASSIC_STATE,</v>
+      </c>
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" s="15" t="str">
-        <f>B5&amp;","</f>
-        <v>WAITFORTHROW,</v>
-      </c>
-      <c r="E5" s="15">
-        <v>1</v>
-      </c>
-      <c r="F5" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITSINGLE</v>
-      </c>
-      <c r="G5" s="15">
-        <v>8</v>
-      </c>
-      <c r="H5" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="18" t="str">
-        <f>$J$33&amp;F5&amp;$J$34&amp;I5&amp;$J$35&amp;H5&amp;$J$36</f>
-        <v>{ State::INITSINGLE, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="O5" s="15">
-        <f>A5</f>
-        <v>3</v>
-      </c>
-      <c r="P5" s="15" t="str">
-        <f>B5</f>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="Q5" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterWAITFORTHROW</v>
-      </c>
-      <c r="R5" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileWAITFORTHROW</v>
-      </c>
-      <c r="S5" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T5" s="15" t="str">
-        <f>$T$18&amp;Q5&amp;$T$19&amp;R5&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterWAITFORTHROW, &amp;StateMachine::whileWAITFORTHROW},</v>
-      </c>
-      <c r="U5" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterWAITFORTHROW();</v>
-      </c>
-      <c r="V5" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileWAITFORTHROW();</v>
-      </c>
-      <c r="W5" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterWAITFORTHROW(){}</v>
-      </c>
-      <c r="X5" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileWAITFORTHROW(){}</v>
-      </c>
-      <c r="AA5" s="15" t="str">
-        <f>$AA$32&amp;F5&amp;$AA$31&amp;H5&amp;$AA$33&amp;I5&amp;$AA$34</f>
-        <v>"INITSINGLE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="17">
-      <c r="A6" s="15">
-        <v>5</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="15" t="str">
-        <f>B6&amp;","</f>
-        <v>THROWING,</v>
-      </c>
-      <c r="E6" s="15">
-        <v>2</v>
-      </c>
-      <c r="F6" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITENTANGLED_AB1</v>
-      </c>
-      <c r="G6" s="15">
-        <v>8</v>
-      </c>
-      <c r="H6" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="18" t="str">
-        <f>$J$33&amp;F6&amp;$J$34&amp;I6&amp;$J$35&amp;H6&amp;$J$36</f>
-        <v>{ State::INITENTANGLED_AB1, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="O6" s="15">
-        <f>A6</f>
-        <v>5</v>
-      </c>
-      <c r="P6" s="15" t="str">
-        <f>B6</f>
-        <v>THROWING</v>
-      </c>
-      <c r="Q6" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterTHROWING</v>
-      </c>
-      <c r="R6" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileTHROWING</v>
-      </c>
-      <c r="S6" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T6" s="15" t="str">
-        <f>$T$18&amp;Q6&amp;$T$19&amp;R6&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterTHROWING, &amp;StateMachine::whileTHROWING},</v>
-      </c>
-      <c r="U6" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterTHROWING();</v>
-      </c>
-      <c r="V6" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileTHROWING();</v>
-      </c>
-      <c r="W6" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterTHROWING(){}</v>
-      </c>
-      <c r="X6" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileTHROWING(){}</v>
-      </c>
-      <c r="AA6" s="15" t="str">
-        <f>$AA$32&amp;F6&amp;$AA$31&amp;H6&amp;$AA$33&amp;I6&amp;$AA$34</f>
-        <v>"INITENTANGLED_AB1" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="17">
-      <c r="A7" s="15">
-        <v>6</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C7" s="15" t="str">
-        <f>B7&amp;","</f>
-        <v>INITMEASURED,</v>
-      </c>
-      <c r="E7" s="15">
-        <v>2</v>
-      </c>
-      <c r="F7" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITENTANGLED_AB1</v>
-      </c>
-      <c r="G7" s="15">
-        <v>4</v>
-      </c>
-      <c r="H7" s="15" t="str">
+      <c r="F9" t="str">
         <f t="shared" si="1"/>
         <v>WAITFORTHROW</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="2"/>
+        <v>INITENTANGLED_AB1</v>
+      </c>
+      <c r="I9" t="s">
+        <v>130</v>
+      </c>
+      <c r="J9" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::closeByAB1,State::INITENTANGLED_AB1 },</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="P9" t="str">
+        <f t="shared" si="5"/>
+        <v>CLASSIC_STATE</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>enterCLASSIC_STATE</v>
+      </c>
+      <c r="R9" t="str">
+        <f t="shared" si="6"/>
+        <v>whileCLASSIC_STATE</v>
+      </c>
+      <c r="S9" t="s">
+        <v>97</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterCLASSIC_STATE, &amp;StateMachine::whileCLASSIC_STATE},</v>
+      </c>
+      <c r="U9" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterCLASSIC_STATE();</v>
+      </c>
+      <c r="V9" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileCLASSIC_STATE();</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterCLASSIC_STATE(){}</v>
+      </c>
+      <c r="X9" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileCLASSIC_STATE(){}</v>
+      </c>
+      <c r="AA9" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB1" [label = "(closeByAB1)"]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="17">
+      <c r="A10">
+        <v>10</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" t="str">
+        <f t="shared" si="0"/>
+        <v>INITENTANGLED_AB2,</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="2"/>
+        <v>THROWING</v>
+      </c>
+      <c r="I10" t="s">
+        <v>106</v>
+      </c>
+      <c r="J10" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::startRolling,State::THROWING },</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="P10" t="str">
+        <f t="shared" si="5"/>
+        <v>INITENTANGLED_AB2</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>enterINITENTANGLED_AB2</v>
+      </c>
+      <c r="R10" t="str">
+        <f t="shared" si="6"/>
+        <v>whileINITENTANGLED_AB2</v>
+      </c>
+      <c r="S10" t="s">
+        <v>97</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterINITENTANGLED_AB2, &amp;StateMachine::whileINITENTANGLED_AB2},</v>
+      </c>
+      <c r="U10" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterINITENTANGLED_AB2();</v>
+      </c>
+      <c r="V10" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileINITENTANGLED_AB2();</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterINITENTANGLED_AB2(){}</v>
+      </c>
+      <c r="X10" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileINITENTANGLED_AB2(){}</v>
+      </c>
+      <c r="AA10" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "THROWING" [label = "(startRolling)"]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="17">
+      <c r="A11">
+        <v>11</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C11" t="str">
+        <f t="shared" si="0"/>
+        <v>INITSINGLE_AFTER_ENT,</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="G11">
+        <v>8</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I11" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" si="5"/>
+        <v>INITSINGLE_AFTER_ENT</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>enterINITSINGLE_AFTER_ENT</v>
+      </c>
+      <c r="R11" t="str">
+        <f t="shared" si="6"/>
+        <v>whileINITSINGLE_AFTER_ENT</v>
+      </c>
+      <c r="S11" t="s">
+        <v>97</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::enterINITSINGLE_AFTER_ENT, &amp;StateMachine::whileINITSINGLE_AFTER_ENT},</v>
+      </c>
+      <c r="U11" t="str">
+        <f t="shared" si="8"/>
+        <v>void enterINITSINGLE_AFTER_ENT();</v>
+      </c>
+      <c r="V11" t="str">
+        <f t="shared" si="9"/>
+        <v>void whileINITSINGLE_AFTER_ENT();</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="10"/>
+        <v>void StateMachine::enterINITSINGLE_AFTER_ENT(){}</v>
+      </c>
+      <c r="X11" t="str">
+        <f t="shared" si="11"/>
+        <v>void StateMachine::whileINITSINGLE_AFTER_ENT(){}</v>
+      </c>
+      <c r="AA11" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="17">
+      <c r="C12" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="2"/>
+        <v>INITSINGLE</v>
+      </c>
+      <c r="I12" t="s">
         <v>98</v>
       </c>
-      <c r="J7" s="18" t="str">
-        <f>$J$33&amp;F7&amp;$J$34&amp;I7&amp;$J$35&amp;H7&amp;$J$36</f>
-        <v>{ State::INITENTANGLED_AB1, Trigger::timed,State::WAITFORTHROW },</v>
-      </c>
-      <c r="M7" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="O7" s="15">
-        <f>A7</f>
-        <v>6</v>
-      </c>
-      <c r="P7" s="15" t="str">
-        <f>B7</f>
-        <v>INITMEASURED</v>
-      </c>
-      <c r="Q7" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterINITMEASURED</v>
-      </c>
-      <c r="R7" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileINITMEASURED</v>
-      </c>
-      <c r="S7" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" s="15" t="str">
-        <f>$T$18&amp;Q7&amp;$T$19&amp;R7&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterINITMEASURED, &amp;StateMachine::whileINITMEASURED},</v>
-      </c>
-      <c r="U7" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterINITMEASURED();</v>
-      </c>
-      <c r="V7" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileINITMEASURED();</v>
-      </c>
-      <c r="W7" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterINITMEASURED(){}</v>
-      </c>
-      <c r="X7" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileINITMEASURED(){}</v>
-      </c>
-      <c r="AA7" s="15" t="str">
-        <f>$AA$32&amp;F7&amp;$AA$31&amp;H7&amp;$AA$33&amp;I7&amp;$AA$34</f>
-        <v>"INITENTANGLED_AB1" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="17">
-      <c r="A8" s="15">
-        <v>8</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="15" t="str">
-        <f>B8&amp;","</f>
-        <v>LOWBATTERY,</v>
-      </c>
-      <c r="E8" s="15">
-        <v>3</v>
-      </c>
-      <c r="F8" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G8" s="15">
-        <v>1</v>
-      </c>
-      <c r="H8" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>INITSINGLE</v>
-      </c>
-      <c r="I8" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="J8" s="18" t="str">
-        <f>$J$33&amp;F8&amp;$J$34&amp;I8&amp;$J$35&amp;H8&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::buttonPressed,State::INITSINGLE },</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="O8" s="15">
-        <f>A8</f>
-        <v>8</v>
-      </c>
-      <c r="P8" s="15" t="str">
-        <f>B8</f>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="Q8" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterLOWBATTERY</v>
-      </c>
-      <c r="R8" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileLOWBATTERY</v>
-      </c>
-      <c r="S8" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T8" s="15" t="str">
-        <f>$T$18&amp;Q8&amp;$T$19&amp;R8&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterLOWBATTERY, &amp;StateMachine::whileLOWBATTERY},</v>
-      </c>
-      <c r="U8" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterLOWBATTERY();</v>
-      </c>
-      <c r="V8" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileLOWBATTERY();</v>
-      </c>
-      <c r="W8" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterLOWBATTERY(){}</v>
-      </c>
-      <c r="X8" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileLOWBATTERY(){}</v>
-      </c>
-      <c r="AA8" s="15" t="str">
-        <f>$AA$32&amp;F8&amp;$AA$31&amp;H8&amp;$AA$33&amp;I8&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="17">
-      <c r="A9" s="15">
-        <v>9</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" s="15" t="str">
-        <f>B9&amp;","</f>
-        <v>CLASSIC_STATE,</v>
-      </c>
-      <c r="E9" s="15">
-        <v>3</v>
-      </c>
-      <c r="F9" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G9" s="15">
-        <v>2</v>
-      </c>
-      <c r="H9" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>INITENTANGLED_AB1</v>
-      </c>
-      <c r="I9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J9" s="18" t="str">
-        <f>$J$33&amp;F9&amp;$J$34&amp;I9&amp;$J$35&amp;H9&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::closeByAB1,State::INITENTANGLED_AB1 },</v>
-      </c>
-      <c r="O9" s="15">
-        <f>A9</f>
-        <v>9</v>
-      </c>
-      <c r="P9" s="15" t="str">
-        <f>B9</f>
-        <v>CLASSIC_STATE</v>
-      </c>
-      <c r="Q9" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterCLASSIC_STATE</v>
-      </c>
-      <c r="R9" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileCLASSIC_STATE</v>
-      </c>
-      <c r="S9" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T9" s="15" t="str">
-        <f>$T$18&amp;Q9&amp;$T$19&amp;R9&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterCLASSIC_STATE, &amp;StateMachine::whileCLASSIC_STATE},</v>
-      </c>
-      <c r="U9" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterCLASSIC_STATE();</v>
-      </c>
-      <c r="V9" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileCLASSIC_STATE();</v>
-      </c>
-      <c r="W9" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterCLASSIC_STATE(){}</v>
-      </c>
-      <c r="X9" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileCLASSIC_STATE(){}</v>
-      </c>
-      <c r="AA9" s="15" t="str">
-        <f>$AA$32&amp;F9&amp;$AA$31&amp;H9&amp;$AA$33&amp;I9&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB1" [label = "(closeByAB1)"]</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" ht="17">
-      <c r="A10" s="15">
-        <v>10</v>
-      </c>
-      <c r="B10" s="17" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="15" t="str">
-        <f>B10&amp;","</f>
-        <v>INITENTANGLED_AB2,</v>
-      </c>
-      <c r="E10" s="15">
-        <v>3</v>
-      </c>
-      <c r="F10" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="J12" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::timed,State::INITSINGLE },</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="7"/>
+        <v>{&amp;StateMachine::, &amp;StateMachine::},</v>
+      </c>
+      <c r="AA12" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(timed)"]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="17">
+      <c r="C13" t="str">
+        <f t="shared" si="0"/>
+        <v>,</v>
+      </c>
+      <c r="E13">
         <v>5</v>
       </c>
-      <c r="H10" s="15" t="str">
+      <c r="F13" t="str">
         <f t="shared" si="1"/>
         <v>THROWING</v>
       </c>
-      <c r="I10" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="J10" s="18" t="str">
-        <f>$J$33&amp;F10&amp;$J$34&amp;I10&amp;$J$35&amp;H10&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::startRolling,State::THROWING },</v>
-      </c>
-      <c r="O10" s="15">
-        <f>A10</f>
-        <v>10</v>
-      </c>
-      <c r="P10" s="15" t="str">
-        <f>B10</f>
-        <v>INITENTANGLED_AB2</v>
-      </c>
-      <c r="Q10" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterINITENTANGLED_AB2</v>
-      </c>
-      <c r="R10" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileINITENTANGLED_AB2</v>
-      </c>
-      <c r="S10" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="T10" s="15" t="str">
-        <f>$T$18&amp;Q10&amp;$T$19&amp;R10&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterINITENTANGLED_AB2, &amp;StateMachine::whileINITENTANGLED_AB2},</v>
-      </c>
-      <c r="U10" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterINITENTANGLED_AB2();</v>
-      </c>
-      <c r="V10" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileINITENTANGLED_AB2();</v>
-      </c>
-      <c r="W10" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterINITENTANGLED_AB2(){}</v>
-      </c>
-      <c r="X10" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileINITENTANGLED_AB2(){}</v>
-      </c>
-      <c r="AA10" s="15" t="str">
-        <f>$AA$32&amp;F10&amp;$AA$31&amp;H10&amp;$AA$33&amp;I10&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "THROWING" [label = "(startRolling)"]</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" ht="17">
-      <c r="A11" s="15">
-        <v>11</v>
-      </c>
-      <c r="B11" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="15" t="str">
-        <f>B11&amp;","</f>
-        <v>INITSINGLE_AFTER_ENT,</v>
-      </c>
-      <c r="E11" s="15">
-        <v>3</v>
-      </c>
-      <c r="F11" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="G13">
+        <v>6</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="2"/>
+        <v>INITMEASURED</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
+      </c>
+      <c r="J13" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::THROWING, Trigger::nonMoving,State::INITMEASURED },</v>
+      </c>
+      <c r="M13" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA13" t="str">
+        <f t="shared" si="12"/>
+        <v>"THROWING" -&gt; "INITMEASURED" [label = "(nonMoving)"]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="17">
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14">
+        <v>5</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>THROWING</v>
+      </c>
+      <c r="G14">
         <v>8</v>
       </c>
-      <c r="H11" s="15" t="str">
-        <f t="shared" si="1"/>
+      <c r="H14" t="str">
+        <f t="shared" si="2"/>
         <v>LOWBATTERY</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I14" t="s">
         <v>99</v>
       </c>
-      <c r="J11" s="18" t="str">
-        <f>$J$33&amp;F11&amp;$J$34&amp;I11&amp;$J$35&amp;H11&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="O11" s="15">
-        <f>A11</f>
-        <v>11</v>
-      </c>
-      <c r="P11" s="15" t="str">
-        <f>B11</f>
-        <v>INITSINGLE_AFTER_ENT</v>
-      </c>
-      <c r="Q11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>enterINITSINGLE_AFTER_ENT</v>
-      </c>
-      <c r="R11" s="15" t="str">
-        <f t="shared" si="2"/>
-        <v>whileINITSINGLE_AFTER_ENT</v>
-      </c>
-      <c r="S11" s="23" t="s">
-        <v>97</v>
-      </c>
-      <c r="T11" s="15" t="str">
-        <f>$T$18&amp;Q11&amp;$T$19&amp;R11&amp;$T$20</f>
-        <v>{&amp;StateMachine::enterINITSINGLE_AFTER_ENT, &amp;StateMachine::whileINITSINGLE_AFTER_ENT},</v>
-      </c>
-      <c r="U11" s="15" t="str">
-        <f t="shared" si="3"/>
-        <v>void enterINITSINGLE_AFTER_ENT();</v>
-      </c>
-      <c r="V11" s="15" t="str">
-        <f t="shared" si="4"/>
-        <v>void whileINITSINGLE_AFTER_ENT();</v>
-      </c>
-      <c r="W11" s="15" t="str">
-        <f t="shared" si="5"/>
-        <v>void StateMachine::enterINITSINGLE_AFTER_ENT(){}</v>
-      </c>
-      <c r="X11" s="15" t="str">
-        <f t="shared" si="6"/>
-        <v>void StateMachine::whileINITSINGLE_AFTER_ENT(){}</v>
-      </c>
-      <c r="AA11" s="15" t="str">
-        <f>$AA$32&amp;F11&amp;$AA$31&amp;H11&amp;$AA$33&amp;I11&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" ht="17">
-      <c r="C12" s="15" t="str">
-        <f>B12&amp;","</f>
-        <v>,</v>
-      </c>
-      <c r="E12" s="15">
-        <v>3</v>
-      </c>
-      <c r="F12" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G12" s="15">
-        <v>1</v>
-      </c>
-      <c r="H12" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>INITSINGLE</v>
-      </c>
-      <c r="I12" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J12" s="18" t="str">
-        <f>$J$33&amp;F12&amp;$J$34&amp;I12&amp;$J$35&amp;H12&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::timed,State::INITSINGLE },</v>
-      </c>
-      <c r="M12" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="T12" s="15" t="str">
-        <f>$T$18&amp;Q12&amp;$T$19&amp;R12&amp;$T$20</f>
-        <v>{&amp;StateMachine::, &amp;StateMachine::},</v>
-      </c>
-      <c r="AA12" s="15" t="str">
-        <f>$AA$32&amp;F12&amp;$AA$31&amp;H12&amp;$AA$33&amp;I12&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(timed)"]</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" ht="17">
-      <c r="C13" s="15" t="str">
-        <f>B13&amp;","</f>
-        <v>,</v>
-      </c>
-      <c r="E13" s="15">
-        <v>5</v>
-      </c>
-      <c r="F13" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>THROWING</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="J14" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::THROWING, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="AA14" t="str">
+        <f t="shared" si="12"/>
+        <v>"THROWING" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="17">
+      <c r="E15">
         <v>6</v>
       </c>
-      <c r="H13" s="15" t="str">
+      <c r="F15" t="str">
         <f t="shared" si="1"/>
         <v>INITMEASURED</v>
       </c>
-      <c r="I13" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="J13" s="18" t="str">
-        <f>$J$33&amp;F13&amp;$J$34&amp;I13&amp;$J$35&amp;H13&amp;$J$36</f>
-        <v>{ State::THROWING, Trigger::nonMoving,State::INITMEASURED },</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="AA13" s="15" t="str">
-        <f>$AA$32&amp;F13&amp;$AA$31&amp;H13&amp;$AA$33&amp;I13&amp;$AA$34</f>
-        <v>"THROWING" -&gt; "INITMEASURED" [label = "(nonMoving)"]</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" ht="17">
-      <c r="C14" s="15" t="s">
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="2"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="I15" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITMEASURED, Trigger::measureXYZ,State::WAITFORTHROW },</v>
+      </c>
+      <c r="T15" t="s">
         <v>72</v>
       </c>
-      <c r="E14" s="15">
+      <c r="AA15" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITMEASURED" -&gt; "WAITFORTHROW" [label = "(measureXYZ)"]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="17">
+      <c r="E16">
+        <v>6</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>INITMEASURED</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
-      <c r="F14" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="H16" t="str">
+        <f t="shared" si="2"/>
         <v>THROWING</v>
       </c>
-      <c r="G14" s="15">
+      <c r="I16" t="s">
+        <v>101</v>
+      </c>
+      <c r="J16" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITMEASURED, Trigger::measurementFail,State::THROWING },</v>
+      </c>
+      <c r="M16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITMEASURED" -&gt; "THROWING" [label = "(measurementFail)"]</v>
+      </c>
+    </row>
+    <row r="17" spans="2:27" ht="17">
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>INITMEASURED</v>
+      </c>
+      <c r="G17">
         <v>8</v>
       </c>
-      <c r="H14" s="15" t="str">
+      <c r="H17" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I17" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITMEASURED, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="AA17" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITMEASURED" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="18" spans="2:27" ht="17">
+      <c r="E18">
+        <v>9</v>
+      </c>
+      <c r="F18" t="str">
         <f t="shared" si="1"/>
+        <v>CLASSIC_STATE</v>
+      </c>
+      <c r="G18">
+        <v>8</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="2"/>
         <v>LOWBATTERY</v>
       </c>
-      <c r="I14" s="15" t="s">
+      <c r="I18" t="s">
         <v>99</v>
       </c>
-      <c r="J14" s="18" t="str">
-        <f>$J$33&amp;F14&amp;$J$34&amp;I14&amp;$J$35&amp;H14&amp;$J$36</f>
-        <v>{ State::THROWING, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="AA14" s="15" t="str">
-        <f>$AA$32&amp;F14&amp;$AA$31&amp;H14&amp;$AA$33&amp;I14&amp;$AA$34</f>
-        <v>"THROWING" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" ht="17">
-      <c r="E15" s="15">
-        <v>6</v>
-      </c>
-      <c r="F15" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITMEASURED</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="J18" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::CLASSIC_STATE, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="M18" t="s">
+        <v>93</v>
+      </c>
+      <c r="T18" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" t="str">
+        <f t="shared" si="12"/>
+        <v>"CLASSIC_STATE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="19" spans="2:27" ht="17">
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>INITENTANGLED_AB2</v>
+      </c>
+      <c r="G19">
+        <v>8</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITENTANGLED_AB2, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="T19" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA19" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITENTANGLED_AB2" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="20" spans="2:27" ht="17">
+      <c r="B20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>INITENTANGLED_AB2</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="2"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITENTANGLED_AB2, Trigger::timed,State::WAITFORTHROW },</v>
+      </c>
+      <c r="M20" t="s">
+        <v>92</v>
+      </c>
+      <c r="T20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITENTANGLED_AB2" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
+      </c>
+    </row>
+    <row r="21" spans="2:27" ht="17">
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="str">
+        <f t="shared" ref="C21:C33" si="13">B21&amp;$C$43</f>
+        <v>onthemove,</v>
+      </c>
+      <c r="E21">
         <v>3</v>
       </c>
-      <c r="H15" s="15" t="str">
+      <c r="F21" t="str">
         <f t="shared" si="1"/>
         <v>WAITFORTHROW</v>
       </c>
-      <c r="I15" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="J15" s="18" t="str">
-        <f>$J$33&amp;F15&amp;$J$34&amp;I15&amp;$J$35&amp;H15&amp;$J$36</f>
-        <v>{ State::INITMEASURED, Trigger::measureXYZ,State::WAITFORTHROW },</v>
-      </c>
-      <c r="T15" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="AA15" s="15" t="str">
-        <f>$AA$32&amp;F15&amp;$AA$31&amp;H15&amp;$AA$33&amp;I15&amp;$AA$34</f>
-        <v>"INITMEASURED" -&gt; "WAITFORTHROW" [label = "(measureXYZ)"]</v>
-      </c>
-    </row>
-    <row r="16" spans="1:27" ht="17">
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITMEASURED</v>
-      </c>
-      <c r="G16" s="15">
-        <v>5</v>
-      </c>
-      <c r="H16" s="15" t="str">
+      <c r="G21">
+        <v>10</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="2"/>
+        <v>INITENTANGLED_AB2</v>
+      </c>
+      <c r="I21" t="s">
+        <v>131</v>
+      </c>
+      <c r="J21" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::WAITFORTHROW, Trigger::closeByAB2,State::INITENTANGLED_AB2 },</v>
+      </c>
+      <c r="AA21" t="str">
+        <f t="shared" si="12"/>
+        <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB2" [label = "(closeByAB2)"]</v>
+      </c>
+    </row>
+    <row r="22" spans="2:27" ht="17">
+      <c r="B22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" t="str">
+        <f t="shared" si="13"/>
+        <v>nonMoving,</v>
+      </c>
+      <c r="E22">
+        <v>11</v>
+      </c>
+      <c r="F22" t="str">
         <f t="shared" si="1"/>
-        <v>THROWING</v>
-      </c>
-      <c r="I16" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="J16" s="18" t="str">
-        <f>$J$33&amp;F16&amp;$J$34&amp;I16&amp;$J$35&amp;H16&amp;$J$36</f>
-        <v>{ State::INITMEASURED, Trigger::measurementFail,State::THROWING },</v>
-      </c>
-      <c r="M16" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA16" s="15" t="str">
-        <f>$AA$32&amp;F16&amp;$AA$31&amp;H16&amp;$AA$33&amp;I16&amp;$AA$34</f>
-        <v>"INITMEASURED" -&gt; "THROWING" [label = "(measurementFail)"]</v>
-      </c>
-    </row>
-    <row r="17" spans="2:27" ht="17">
-      <c r="E17" s="15">
-        <v>6</v>
-      </c>
-      <c r="F17" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITMEASURED</v>
-      </c>
-      <c r="G17" s="15">
+        <v>INITSINGLE_AFTER_ENT</v>
+      </c>
+      <c r="G22">
         <v>8</v>
       </c>
-      <c r="H17" s="15" t="str">
+      <c r="H22" t="str">
+        <f t="shared" si="2"/>
+        <v>LOWBATTERY</v>
+      </c>
+      <c r="I22" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITSINGLE_AFTER_ENT, Trigger::lowbattery,State::LOWBATTERY },</v>
+      </c>
+      <c r="M22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA22" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITSINGLE_AFTER_ENT" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
+      </c>
+    </row>
+    <row r="23" spans="2:27" ht="17">
+      <c r="B23" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" t="str">
+        <f t="shared" si="13"/>
+        <v>startRolling,</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23" t="str">
         <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="18" t="str">
-        <f>$J$33&amp;F17&amp;$J$34&amp;I17&amp;$J$35&amp;H17&amp;$J$36</f>
-        <v>{ State::INITMEASURED, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="AA17" s="15" t="str">
-        <f>$AA$32&amp;F17&amp;$AA$31&amp;H17&amp;$AA$33&amp;I17&amp;$AA$34</f>
-        <v>"INITMEASURED" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="18" spans="2:27" ht="17">
-      <c r="E18" s="15">
-        <v>9</v>
-      </c>
-      <c r="F18" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>CLASSIC_STATE</v>
-      </c>
-      <c r="G18" s="15">
-        <v>8</v>
-      </c>
-      <c r="H18" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="18" t="str">
-        <f>$J$33&amp;F18&amp;$J$34&amp;I18&amp;$J$35&amp;H18&amp;$J$36</f>
-        <v>{ State::CLASSIC_STATE, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="M18" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="T18" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" s="15" t="str">
-        <f>$AA$32&amp;F18&amp;$AA$31&amp;H18&amp;$AA$33&amp;I18&amp;$AA$34</f>
-        <v>"CLASSIC_STATE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="19" spans="2:27" ht="17">
-      <c r="E19" s="15">
-        <v>10</v>
-      </c>
-      <c r="F19" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITENTANGLED_AB2</v>
-      </c>
-      <c r="G19" s="15">
-        <v>8</v>
-      </c>
-      <c r="H19" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I19" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="18" t="str">
-        <f>$J$33&amp;F19&amp;$J$34&amp;I19&amp;$J$35&amp;H19&amp;$J$36</f>
-        <v>{ State::INITENTANGLED_AB2, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="T19" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="AA19" s="15" t="str">
-        <f>$AA$32&amp;F19&amp;$AA$31&amp;H19&amp;$AA$33&amp;I19&amp;$AA$34</f>
-        <v>"INITENTANGLED_AB2" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="20" spans="2:27" ht="17">
-      <c r="B20" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="E20" s="15">
-        <v>10</v>
-      </c>
-      <c r="F20" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITENTANGLED_AB2</v>
-      </c>
-      <c r="G20" s="15">
+        <v>INITSINGLE_AFTER_ENT</v>
+      </c>
+      <c r="G23">
         <v>4</v>
       </c>
-      <c r="H20" s="15" t="str">
+      <c r="H23" t="str">
+        <f t="shared" si="2"/>
+        <v>WAITFORTHROW</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>{ State::INITSINGLE_AFTER_ENT, Trigger::timed,State::WAITFORTHROW },</v>
+      </c>
+      <c r="AA23" t="str">
+        <f t="shared" si="12"/>
+        <v>"INITSINGLE_AFTER_ENT" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
+      </c>
+    </row>
+    <row r="24" spans="2:27" ht="17">
+      <c r="B24" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" t="str">
+        <f t="shared" si="13"/>
+        <v>buttonPressed,</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24" t="str">
         <f t="shared" si="1"/>
         <v>WAITFORTHROW</v>
       </c>
-      <c r="I20" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J20" s="18" t="str">
-        <f>$J$33&amp;F20&amp;$J$34&amp;I20&amp;$J$35&amp;H20&amp;$J$36</f>
-        <v>{ State::INITENTANGLED_AB2, Trigger::timed,State::WAITFORTHROW },</v>
-      </c>
-      <c r="M20" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="T20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA20" s="15" t="str">
-        <f>$AA$32&amp;F20&amp;$AA$31&amp;H20&amp;$AA$33&amp;I20&amp;$AA$34</f>
-        <v>"INITENTANGLED_AB2" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
-      </c>
-    </row>
-    <row r="21" spans="2:27" ht="17">
-      <c r="B21" s="15" t="s">
-        <v>109</v>
-      </c>
-      <c r="C21" s="15" t="str">
-        <f>B21&amp;$C$43</f>
-        <v>onthemove,</v>
-      </c>
-      <c r="E21" s="15">
-        <v>3</v>
-      </c>
-      <c r="F21" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G21" s="15">
-        <v>10</v>
-      </c>
-      <c r="H21" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>INITENTANGLED_AB2</v>
-      </c>
-      <c r="I21" s="15" t="s">
-        <v>131</v>
-      </c>
-      <c r="J21" s="18" t="str">
-        <f>$J$33&amp;F21&amp;$J$34&amp;I21&amp;$J$35&amp;H21&amp;$J$36</f>
-        <v>{ State::WAITFORTHROW, Trigger::closeByAB2,State::INITENTANGLED_AB2 },</v>
-      </c>
-      <c r="AA21" s="15" t="str">
-        <f>$AA$32&amp;F21&amp;$AA$31&amp;H21&amp;$AA$33&amp;I21&amp;$AA$34</f>
-        <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB2" [label = "(closeByAB2)"]</v>
-      </c>
-    </row>
-    <row r="22" spans="2:27" ht="17">
-      <c r="B22" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="C22" s="15" t="str">
-        <f>B22&amp;$C$43</f>
-        <v>nonMoving,</v>
-      </c>
-      <c r="E22" s="15">
+      <c r="G24">
         <v>11</v>
       </c>
-      <c r="F22" s="15" t="str">
-        <f t="shared" si="0"/>
+      <c r="H24" t="str">
+        <f t="shared" si="2"/>
         <v>INITSINGLE_AFTER_ENT</v>
       </c>
-      <c r="G22" s="15">
-        <v>8</v>
-      </c>
-      <c r="H22" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>LOWBATTERY</v>
-      </c>
-      <c r="I22" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="18" t="str">
-        <f>$J$33&amp;F22&amp;$J$34&amp;I22&amp;$J$35&amp;H22&amp;$J$36</f>
-        <v>{ State::INITSINGLE_AFTER_ENT, Trigger::lowbattery,State::LOWBATTERY },</v>
-      </c>
-      <c r="M22" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="AA22" s="15" t="str">
-        <f>$AA$32&amp;F22&amp;$AA$31&amp;H22&amp;$AA$33&amp;I22&amp;$AA$34</f>
-        <v>"INITSINGLE_AFTER_ENT" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
-      </c>
-    </row>
-    <row r="23" spans="2:27" ht="17">
-      <c r="B23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="15" t="str">
-        <f>B23&amp;$C$43</f>
-        <v>startRolling,</v>
-      </c>
-      <c r="E23" s="15">
-        <v>11</v>
-      </c>
-      <c r="F23" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>INITSINGLE_AFTER_ENT</v>
-      </c>
-      <c r="G23" s="15">
-        <v>4</v>
-      </c>
-      <c r="H23" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="I23" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23" s="18" t="str">
-        <f>$J$33&amp;F23&amp;$J$34&amp;I23&amp;$J$35&amp;H23&amp;$J$36</f>
-        <v>{ State::INITSINGLE_AFTER_ENT, Trigger::timed,State::WAITFORTHROW },</v>
-      </c>
-      <c r="AA23" s="15" t="str">
-        <f>$AA$32&amp;F23&amp;$AA$31&amp;H23&amp;$AA$33&amp;I23&amp;$AA$34</f>
-        <v>"INITSINGLE_AFTER_ENT" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
-      </c>
-    </row>
-    <row r="24" spans="2:27" ht="17">
-      <c r="B24" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C24" s="15" t="str">
-        <f>B24&amp;$C$43</f>
-        <v>buttonPressed,</v>
-      </c>
-      <c r="E24" s="15">
-        <v>3</v>
-      </c>
-      <c r="F24" s="15" t="str">
-        <f t="shared" si="0"/>
-        <v>WAITFORTHROW</v>
-      </c>
-      <c r="G24" s="15">
-        <v>11</v>
-      </c>
-      <c r="H24" s="15" t="str">
-        <f t="shared" si="1"/>
-        <v>INITSINGLE_AFTER_ENT</v>
-      </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" t="s">
         <v>136</v>
       </c>
-      <c r="J24" s="18" t="str">
-        <f>$J$33&amp;F24&amp;$J$34&amp;I24&amp;$J$35&amp;H24&amp;$J$36</f>
+      <c r="J24" s="16" t="str">
+        <f t="shared" si="3"/>
         <v>{ State::WAITFORTHROW, Trigger::entangleStopReceived,State::INITSINGLE_AFTER_ENT },</v>
       </c>
-      <c r="M24" s="15" t="s">
+      <c r="M24" t="s">
         <v>88</v>
       </c>
-      <c r="AA24" s="15" t="str">
-        <f>$AA$32&amp;F24&amp;$AA$31&amp;H24&amp;$AA$33&amp;I24&amp;$AA$34</f>
+      <c r="AA24" t="str">
+        <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITSINGLE_AFTER_ENT" [label = "(entangleStopReceived)"]</v>
       </c>
     </row>
     <row r="25" spans="2:27" ht="17">
-      <c r="B25" s="15" t="s">
+      <c r="B25" t="s">
         <v>102</v>
       </c>
-      <c r="C25" s="15" t="str">
-        <f>B25&amp;$C$43</f>
+      <c r="C25" t="str">
+        <f t="shared" si="13"/>
         <v>measureXYZ,</v>
       </c>
-      <c r="J25" s="18" t="str">
-        <f>$J$33&amp;F25&amp;$J$34&amp;I25&amp;$J$35&amp;H25&amp;$J$36</f>
+      <c r="J25" s="16" t="str">
+        <f t="shared" si="3"/>
         <v>{ State::, Trigger::,State:: },</v>
       </c>
-      <c r="AA25" s="15" t="str">
-        <f>$AA$32&amp;F25&amp;$AA$31&amp;H25&amp;$AA$33&amp;I25&amp;$AA$34</f>
+      <c r="AA25" t="str">
+        <f t="shared" si="12"/>
         <v>"" -&gt; "" [label = "()"]</v>
       </c>
     </row>
     <row r="26" spans="2:27" ht="17">
-      <c r="B26" s="15" t="s">
+      <c r="B26" t="s">
         <v>101</v>
       </c>
-      <c r="C26" s="15" t="str">
-        <f>B26&amp;$C$43</f>
+      <c r="C26" t="str">
+        <f t="shared" si="13"/>
         <v>measurementFail,</v>
       </c>
-      <c r="J26" s="18" t="str">
-        <f>$J$33&amp;F26&amp;$J$34&amp;I26&amp;$J$35&amp;H26&amp;$J$36</f>
+      <c r="J26" s="16" t="str">
+        <f t="shared" si="3"/>
         <v>{ State::, Trigger::,State:: },</v>
       </c>
     </row>
     <row r="27" spans="2:27" ht="17">
-      <c r="B27" s="15" t="s">
+      <c r="B27" t="s">
         <v>130</v>
       </c>
-      <c r="C27" s="15" t="str">
-        <f>B27&amp;$C$43</f>
+      <c r="C27" t="str">
+        <f t="shared" si="13"/>
         <v>closeByAB1,</v>
       </c>
-      <c r="J27" s="18"/>
-      <c r="AA27" s="15" t="str">
+      <c r="J27" s="16"/>
+      <c r="AA27" t="str">
         <f>$AA$32&amp;$F$2&amp;$AA$35</f>
         <v>"IDLE" [style=filled fontcolor=white fillcolor=black];</v>
       </c>
     </row>
     <row r="28" spans="2:27" ht="17">
-      <c r="B28" s="15" t="s">
+      <c r="B28" t="s">
         <v>125</v>
       </c>
-      <c r="C28" s="15" t="str">
-        <f>B28&amp;$C$43</f>
+      <c r="C28" t="str">
+        <f t="shared" si="13"/>
         <v>entanglementSucces,</v>
       </c>
-      <c r="J28" s="18" t="s">
+      <c r="J28" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="AA28" s="20" t="s">
+      <c r="AA28" s="18" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="29" spans="2:27">
-      <c r="B29" s="15" t="s">
+      <c r="B29" t="s">
         <v>124</v>
       </c>
-      <c r="C29" s="15" t="str">
-        <f>B29&amp;$C$43</f>
+      <c r="C29" t="str">
+        <f t="shared" si="13"/>
         <v>entanglementFail,</v>
       </c>
     </row>
     <row r="30" spans="2:27">
-      <c r="B30" s="15" t="s">
+      <c r="B30" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="15" t="str">
-        <f>B30&amp;$C$43</f>
+      <c r="C30" t="str">
+        <f t="shared" si="13"/>
         <v>lowbattery,</v>
       </c>
-      <c r="AA30" s="21" t="s">
+      <c r="AA30" s="19" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:27">
-      <c r="B31" s="15" t="s">
+      <c r="B31" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="15" t="str">
-        <f>B31&amp;$C$43</f>
+      <c r="C31" t="str">
+        <f t="shared" si="13"/>
         <v>timed,</v>
       </c>
-      <c r="AA31" s="20" t="s">
+      <c r="AA31" s="18" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:27">
-      <c r="B32" s="15" t="s">
+      <c r="B32" t="s">
         <v>131</v>
       </c>
-      <c r="C32" s="15" t="str">
-        <f>B32&amp;$C$43</f>
+      <c r="C32" t="str">
+        <f t="shared" si="13"/>
         <v>closeByAB2,</v>
       </c>
-      <c r="AA32" s="20" t="s">
+      <c r="AA32" s="18" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="2:27">
-      <c r="B33" s="15" t="s">
+      <c r="B33" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="15" t="str">
-        <f>B33&amp;$C$43</f>
+      <c r="C33" t="str">
+        <f t="shared" si="13"/>
         <v>entangleStopReceived,</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" t="s">
         <v>80</v>
       </c>
-      <c r="AA33" s="20" t="s">
+      <c r="AA33" s="18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:27">
-      <c r="C34" s="15" t="str">
+      <c r="C34" t="str">
         <f>K15&amp;$C$43</f>
         <v>,</v>
       </c>
-      <c r="J34" s="15" t="s">
+      <c r="J34" t="s">
         <v>78</v>
       </c>
-      <c r="AA34" s="20" t="s">
+      <c r="AA34" s="18" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="35" spans="2:27">
-      <c r="C35" s="15" t="str">
+      <c r="C35" t="str">
         <f>K16&amp;$C$43</f>
         <v>,</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" t="s">
         <v>76</v>
       </c>
-      <c r="AA35" s="20" t="s">
+      <c r="AA35" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="2:27">
-      <c r="C36" s="15" t="str">
+      <c r="C36" t="str">
         <f>K17&amp;$C$43</f>
         <v>,</v>
       </c>
-      <c r="J36" s="15" t="s">
+      <c r="J36" t="s">
         <v>74</v>
       </c>
-      <c r="AA36" s="20" t="s">
+      <c r="AA36" s="18" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:27">
-      <c r="C37" s="15" t="str">
+      <c r="C37" t="str">
         <f>K18&amp;$C$43</f>
         <v>,</v>
       </c>
     </row>
     <row r="38" spans="2:27">
-      <c r="C38" s="15" t="s">
+      <c r="C38" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="43" spans="2:27">
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>63</v>
       </c>
     </row>
@@ -7440,35 +7431,16 @@
   </sheetData>
   <autoFilter ref="B2:K60" xr:uid="{8FF8556D-36AD-1140-93F1-0F7A5D3D131D}"/>
   <phoneticPr fontId="7" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:E52 D55:E60 E61:E72 D3:E44 B65:B72 C66:C67" xr:uid="{5FF4A1FE-F1A5-0F44-B03F-A172725609A5}">
+      <formula1>#REF!</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="7">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5FF4A1FE-F1A5-0F44-B03F-A172725609A5}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D3:D8 E3:E44 D52:E52 D55:E60 E61:E72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{789DF2A8-4833-2749-BD27-A2D7B8948B62}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>C66:C67</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{1EA40304-E6E4-954D-AC3D-252F224921CE}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>B65:B72</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F2AD0FD4-E178-3349-8734-B67212466690}">
-          <x14:formula1>
-            <xm:f>#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>D9:D44</xm:sqref>
-        </x14:dataValidation>
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{F80687A1-CF7D-3842-8EE3-763C015B7BFE}">
           <x14:formula1>
             <xm:f>'State definitions'!$A$2:$A$14</xm:f>

--- a/Arduino/DiceStateGenerators v2.xlsx
+++ b/Arduino/DiceStateGenerators v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aernoutvanrossum/Github/Quantum-Dice-by-UTwente/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66320A26-D9B3-6A45-AC1D-A5EB70BADC08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B5D1E-BD93-8D49-91B4-E9B98F165BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6480" yWindow="500" windowWidth="33280" windowHeight="21820" activeTab="2" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="State definitions" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="173">
   <si>
     <t>requested</t>
   </si>
@@ -464,13 +464,112 @@
   </si>
   <si>
     <t>while functions</t>
+  </si>
+  <si>
+    <t>stateDiagram-v2</t>
+  </si>
+  <si>
+    <t>--&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[*] --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">: </t>
+  </si>
+  <si>
+    <t>AB1 closeby</t>
+  </si>
+  <si>
+    <t>AB2 closeby</t>
+  </si>
+  <si>
+    <t>rolling and stopped</t>
+  </si>
+  <si>
+    <t>time-out</t>
+  </si>
+  <si>
+    <t>time_out</t>
+  </si>
+  <si>
+    <t>quantum button</t>
+  </si>
+  <si>
+    <t>InitMeasured function:</t>
+  </si>
+  <si>
+    <t>Determination upside (X0, X1, …Z1)</t>
+  </si>
+  <si>
+    <t>Determination DiceNumber:</t>
+  </si>
+  <si>
+    <t>Determination measureAxis (X, Y, Z)</t>
+  </si>
+  <si>
+    <t>same axis as previous</t>
+  </si>
+  <si>
+    <t>same axis as sister</t>
+  </si>
+  <si>
+    <t>Read sister measureAxis</t>
+  </si>
+  <si>
+    <t>Read sister DiceNumber</t>
+  </si>
+  <si>
+    <t>DiceNumber = opposite (Sister DiceNumber)</t>
+  </si>
+  <si>
+    <t>DiceNumber = previous DiceNumer</t>
+  </si>
+  <si>
+    <t>Read previous DiceNumber</t>
+  </si>
+  <si>
+    <t>DiceNuber = random(1..6)</t>
+  </si>
+  <si>
+    <t>diffenent axis as previous</t>
+  </si>
+  <si>
+    <t>different axis as sister</t>
+  </si>
+  <si>
+    <t>send measurement to sister</t>
+  </si>
+  <si>
+    <t>New DiceState: MEASURED</t>
+  </si>
+  <si>
+    <t>no sister DiceNumber</t>
+  </si>
+  <si>
+    <t>with sister DiceNumber</t>
+  </si>
+  <si>
+    <t>DiceNumer = Sister DiceNumber</t>
+  </si>
+  <si>
+    <t>UN_ENTANGLED_AB1</t>
+  </si>
+  <si>
+    <t>UN_ENTANGLED_AB2</t>
+  </si>
+  <si>
+    <t>(UN_)ENTANGLED_AB1</t>
+  </si>
+  <si>
+    <t>(UN_)ENTANGLED_AB2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,6 +621,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4E5B61"/>
+      <name val="Menlo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -581,7 +686,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -605,6 +710,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -940,19 +1046,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014A776-382F-F441-9C8E-057602A49307}">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="45" customWidth="1"/>
+    <col min="11" max="11" width="23.1640625" customWidth="1"/>
+    <col min="12" max="12" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="20" customFormat="1">
+    <row r="1" spans="1:12" s="20" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
@@ -968,13 +1078,16 @@
       <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="L1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C2" t="s">
         <v>40</v>
@@ -985,13 +1098,26 @@
       <c r="E2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="I2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" t="str">
+        <f>I2&amp;" --&gt; "&amp;K2&amp;" :"&amp;J2</f>
+        <v>CLASSIC --&gt; SINGLE :quantum button</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>44</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>18</v>
@@ -1002,13 +1128,26 @@
       <c r="E3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L3" t="str">
+        <f t="shared" ref="L3:L16" si="0">I3&amp;" --&gt; "&amp;K3&amp;" :"&amp;J3</f>
+        <v>SINGLE --&gt; ENTANGLED_AB1 :AB1 closeby</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" t="s">
         <v>129</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C4" t="s">
         <v>31</v>
@@ -1019,13 +1158,26 @@
       <c r="E4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" t="s">
+        <v>145</v>
+      </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
+      <c r="L4" t="str">
+        <f t="shared" si="0"/>
+        <v>SINGLE --&gt; ENTANGLED_AB2 :AB2 closeby</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" t="s">
         <v>46</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>126</v>
       </c>
       <c r="C5" t="s">
         <v>32</v>
@@ -1036,13 +1188,26 @@
       <c r="E5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="I5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" t="s">
+        <v>145</v>
+      </c>
+      <c r="K5" t="s">
+        <v>134</v>
+      </c>
+      <c r="L5" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB1 --&gt; MEASURED_AFTER_ENT :AB2 closeby</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" t="s">
         <v>48</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="C6" t="s">
         <v>33</v>
@@ -1053,13 +1218,26 @@
       <c r="E6" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="I6" t="s">
+        <v>127</v>
+      </c>
+      <c r="J6" t="s">
+        <v>144</v>
+      </c>
+      <c r="K6" t="s">
+        <v>134</v>
+      </c>
+      <c r="L6" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB2 --&gt; MEASURED_AFTER_ENT :AB1 closeby</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="14" t="s">
-        <v>57</v>
+      <c r="B7" t="s">
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>34</v>
@@ -1070,13 +1248,26 @@
       <c r="E7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="I7" t="s">
+        <v>126</v>
+      </c>
+      <c r="J7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L7" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB1 --&gt; MEASURED :rolling and stopped</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" t="s">
         <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -1087,13 +1278,26 @@
       <c r="E8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="I8" t="s">
+        <v>127</v>
+      </c>
+      <c r="J8" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L8" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB2 --&gt; MEASURED :MEASURED</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -1104,19 +1308,48 @@
       <c r="E9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="I9" t="s">
+        <v>126</v>
+      </c>
+      <c r="J9" t="s">
+        <v>147</v>
+      </c>
+      <c r="K9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB1 --&gt; SINGLE :time-out</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
         <v>128</v>
       </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
       <c r="C10" t="s">
         <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="I10" t="s">
+        <v>127</v>
+      </c>
+      <c r="J10" t="s">
+        <v>148</v>
+      </c>
+      <c r="K10" t="s">
+        <v>43</v>
+      </c>
+      <c r="L10" t="str">
+        <f t="shared" si="0"/>
+        <v>ENTANGLED_AB2 --&gt; SINGLE :time_out</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="14" t="s">
         <v>135</v>
       </c>
@@ -1126,66 +1359,291 @@
       <c r="E11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="I11" t="s">
+        <v>134</v>
+      </c>
+      <c r="J11" t="s">
+        <v>146</v>
+      </c>
+      <c r="K11" t="s">
+        <v>45</v>
+      </c>
+      <c r="L11" t="str">
+        <f t="shared" si="0"/>
+        <v>MEASURED_AFTER_ENT --&gt; MEASURED :rolling and stopped</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
       <c r="C12" t="s">
         <v>70</v>
       </c>
       <c r="E12" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="I12" t="s">
+        <v>43</v>
+      </c>
+      <c r="J12" t="s">
+        <v>146</v>
+      </c>
+      <c r="K12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L12" t="str">
+        <f t="shared" si="0"/>
+        <v>SINGLE --&gt; MEASURED :rolling and stopped</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="C13" t="s">
         <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="I13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" t="s">
+        <v>149</v>
+      </c>
+      <c r="K13" t="s">
+        <v>43</v>
+      </c>
+      <c r="L13" t="str">
+        <f t="shared" si="0"/>
+        <v>MEASURED --&gt; SINGLE :quantum button</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="E14" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="I14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" t="s">
+        <v>144</v>
+      </c>
+      <c r="K14" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" t="str">
+        <f t="shared" si="0"/>
+        <v>MEASURED --&gt; ENTANGLED_AB1 :AB1 closeby</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="E15" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="I15" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" t="s">
+        <v>145</v>
+      </c>
+      <c r="K15" t="s">
+        <v>127</v>
+      </c>
+      <c r="L15" t="str">
+        <f t="shared" si="0"/>
+        <v>MEASURED --&gt; ENTANGLED_AB2 :AB2 closeby</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="E16" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="17" spans="5:5">
+      <c r="I16" t="s">
+        <v>45</v>
+      </c>
+      <c r="J16" t="s">
+        <v>146</v>
+      </c>
+      <c r="K16" t="s">
+        <v>45</v>
+      </c>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v>MEASURED --&gt; MEASURED :rolling and stopped</v>
+      </c>
+    </row>
+    <row r="17" spans="5:13">
       <c r="E17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="5:5">
+    <row r="18" spans="5:13">
       <c r="E18" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="19" spans="5:5">
+      <c r="L18" t="str">
+        <f>L20&amp;I2</f>
+        <v>[*] --&gt; CLASSIC</v>
+      </c>
+    </row>
+    <row r="19" spans="5:13">
       <c r="E19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="5:5">
+    <row r="20" spans="5:13">
       <c r="E20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="5:5">
+      <c r="L20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="5:13">
       <c r="E21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="5:5">
+    <row r="22" spans="5:13">
       <c r="E22" t="s">
         <v>137</v>
+      </c>
+      <c r="H22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="5:13">
+      <c r="I23" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="24" spans="5:13">
+      <c r="I24" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="25" spans="5:13">
+      <c r="I25" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="5:13">
+      <c r="I26" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="5:13">
+      <c r="I27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="28" spans="5:13">
+      <c r="J28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="5:13">
+      <c r="J29" t="s">
+        <v>43</v>
+      </c>
+      <c r="K29" s="18" t="s">
+        <v>141</v>
+      </c>
+      <c r="L29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="5:13">
+      <c r="J30" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="K30" t="s">
+        <v>154</v>
+      </c>
+      <c r="L30" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="5:13">
+      <c r="K31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L31" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="32" spans="5:13">
+      <c r="J32" t="s">
+        <v>171</v>
+      </c>
+      <c r="K32" t="s">
+        <v>155</v>
+      </c>
+      <c r="L32" t="s">
+        <v>158</v>
+      </c>
+      <c r="M32" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="33" spans="10:14">
+      <c r="K33" t="s">
+        <v>163</v>
+      </c>
+      <c r="L33" t="s">
+        <v>161</v>
+      </c>
+      <c r="M33" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="34" spans="10:14">
+      <c r="J34" t="s">
+        <v>172</v>
+      </c>
+      <c r="K34" t="s">
+        <v>155</v>
+      </c>
+      <c r="L34" t="s">
+        <v>158</v>
+      </c>
+      <c r="M34" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="35" spans="10:14">
+      <c r="K35" t="s">
+        <v>163</v>
+      </c>
+      <c r="L35" t="s">
+        <v>161</v>
+      </c>
+      <c r="M35" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="10:14">
+      <c r="J36" t="s">
+        <v>134</v>
+      </c>
+      <c r="K36" t="s">
+        <v>166</v>
+      </c>
+      <c r="L36" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="10:14">
+      <c r="K37" t="s">
+        <v>167</v>
+      </c>
+      <c r="L37" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="38" spans="10:14">
+      <c r="N38" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -1196,10 +1654,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D527CBE5-F674-FD45-BE3F-A703ADFEAAA5}">
-  <dimension ref="A1:AA43"/>
+  <dimension ref="A1:AB43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1221,9 +1679,10 @@
     <col min="23" max="23" width="47" customWidth="1"/>
     <col min="24" max="24" width="43.83203125" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="68" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="54" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="51">
+    <row r="1" spans="1:28" ht="51">
       <c r="A1" t="s">
         <v>123</v>
       </c>
@@ -1284,8 +1743,11 @@
       <c r="AA1" s="15" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:27" ht="19">
+      <c r="AB1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="19">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1364,8 +1826,12 @@
         <f t="shared" ref="AA2:AA25" si="12">$AA$32&amp;F2&amp;$AA$31&amp;H2&amp;$AA$33&amp;I2&amp;$AA$34</f>
         <v>"IDLE" -&gt; "CLASSIC_STATE" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="3" spans="1:27" ht="17">
+      <c r="AB2" t="str">
+        <f>$AB$32&amp;F2&amp;$AB$31&amp;H2&amp;$AB$33&amp;I2&amp;$AB$34</f>
+        <v>IDLE--&gt;CLASSIC_STATE: timed</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" ht="17">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1440,8 +1906,12 @@
         <f t="shared" si="12"/>
         <v>"CLASSIC_STATE" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
       </c>
-    </row>
-    <row r="4" spans="1:27" ht="17">
+      <c r="AB3" t="str">
+        <f t="shared" ref="AB3:AB24" si="13">$AB$32&amp;F3&amp;$AB$31&amp;H3&amp;$AB$33&amp;I3&amp;$AB$34</f>
+        <v>CLASSIC_STATE--&gt;INITSINGLE: buttonPressed</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" ht="17">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1519,8 +1989,12 @@
         <f t="shared" si="12"/>
         <v>"INITSINGLE" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="5" spans="1:27" ht="17">
+      <c r="AB4" t="str">
+        <f t="shared" si="13"/>
+        <v>INITSINGLE--&gt;WAITFORTHROW: timed</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" ht="17">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1599,7 +2073,7 @@
         <v>"INITSINGLE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="6" spans="1:27" ht="17">
+    <row r="6" spans="1:28" ht="17">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1675,7 +2149,7 @@
         <v>"INITENTANGLED_AB1" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="17">
+    <row r="7" spans="1:28" ht="17">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1753,8 +2227,12 @@
         <f t="shared" si="12"/>
         <v>"INITENTANGLED_AB1" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="8" spans="1:27" ht="17">
+      <c r="AB7" t="str">
+        <f t="shared" si="13"/>
+        <v>INITENTANGLED_AB1--&gt;WAITFORTHROW: timed</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" ht="17">
       <c r="A8">
         <v>8</v>
       </c>
@@ -1832,8 +2310,12 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(buttonPressed)"]</v>
       </c>
-    </row>
-    <row r="9" spans="1:27" ht="17">
+      <c r="AB8" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;INITSINGLE: buttonPressed</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" ht="17">
       <c r="A9">
         <v>9</v>
       </c>
@@ -1908,8 +2390,12 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB1" [label = "(closeByAB1)"]</v>
       </c>
-    </row>
-    <row r="10" spans="1:27" ht="17">
+      <c r="AB9" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;INITENTANGLED_AB1: closeByAB1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" ht="17">
       <c r="A10">
         <v>10</v>
       </c>
@@ -1984,8 +2470,12 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "THROWING" [label = "(startRolling)"]</v>
       </c>
-    </row>
-    <row r="11" spans="1:27" ht="17">
+      <c r="AB10" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;THROWING: startRolling</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" ht="17">
       <c r="A11">
         <v>11</v>
       </c>
@@ -2061,7 +2551,7 @@
         <v>"WAITFORTHROW" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="12" spans="1:27" ht="17">
+    <row r="12" spans="1:28" ht="17">
       <c r="C12" t="str">
         <f t="shared" si="0"/>
         <v>,</v>
@@ -2098,8 +2588,12 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITSINGLE" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" ht="17">
+      <c r="AB12" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;INITSINGLE: timed</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" ht="17">
       <c r="C13" t="str">
         <f t="shared" si="0"/>
         <v>,</v>
@@ -2132,8 +2626,12 @@
         <f t="shared" si="12"/>
         <v>"THROWING" -&gt; "INITMEASURED" [label = "(nonMoving)"]</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" ht="17">
+      <c r="AB13" t="str">
+        <f t="shared" si="13"/>
+        <v>THROWING--&gt;INITMEASURED: nonMoving</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" ht="17">
       <c r="C14" t="s">
         <v>72</v>
       </c>
@@ -2163,7 +2661,7 @@
         <v>"THROWING" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="15" spans="1:27" ht="17">
+    <row r="15" spans="1:28" ht="17">
       <c r="E15">
         <v>6</v>
       </c>
@@ -2192,8 +2690,12 @@
         <f t="shared" si="12"/>
         <v>"INITMEASURED" -&gt; "WAITFORTHROW" [label = "(measureXYZ)"]</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" ht="17">
+      <c r="AB15" t="str">
+        <f t="shared" si="13"/>
+        <v>INITMEASURED--&gt;WAITFORTHROW: measureXYZ</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" ht="17">
       <c r="E16">
         <v>6</v>
       </c>
@@ -2222,8 +2724,12 @@
         <f t="shared" si="12"/>
         <v>"INITMEASURED" -&gt; "THROWING" [label = "(measurementFail)"]</v>
       </c>
-    </row>
-    <row r="17" spans="2:27" ht="17">
+      <c r="AB16" t="str">
+        <f t="shared" si="13"/>
+        <v>INITMEASURED--&gt;THROWING: measurementFail</v>
+      </c>
+    </row>
+    <row r="17" spans="2:28" ht="17">
       <c r="E17">
         <v>6</v>
       </c>
@@ -2250,7 +2756,7 @@
         <v>"INITMEASURED" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="18" spans="2:27" ht="17">
+    <row r="18" spans="2:28" ht="17">
       <c r="E18">
         <v>9</v>
       </c>
@@ -2283,7 +2789,7 @@
         <v>"CLASSIC_STATE" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="19" spans="2:27" ht="17">
+    <row r="19" spans="2:28" ht="17">
       <c r="E19">
         <v>10</v>
       </c>
@@ -2313,7 +2819,7 @@
         <v>"INITENTANGLED_AB2" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="20" spans="2:27" ht="17">
+    <row r="20" spans="2:28" ht="17">
       <c r="B20" t="s">
         <v>117</v>
       </c>
@@ -2351,13 +2857,17 @@
         <f t="shared" si="12"/>
         <v>"INITENTANGLED_AB2" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="21" spans="2:27" ht="17">
+      <c r="AB20" t="str">
+        <f t="shared" si="13"/>
+        <v>INITENTANGLED_AB2--&gt;WAITFORTHROW: timed</v>
+      </c>
+    </row>
+    <row r="21" spans="2:28" ht="17">
       <c r="B21" t="s">
         <v>109</v>
       </c>
       <c r="C21" t="str">
-        <f t="shared" ref="C21:C33" si="13">B21&amp;$C$43</f>
+        <f t="shared" ref="C21:C33" si="14">B21&amp;$C$43</f>
         <v>onthemove,</v>
       </c>
       <c r="E21">
@@ -2385,13 +2895,17 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITENTANGLED_AB2" [label = "(closeByAB2)"]</v>
       </c>
-    </row>
-    <row r="22" spans="2:27" ht="17">
+      <c r="AB21" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;INITENTANGLED_AB2: closeByAB2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:28" ht="17">
       <c r="B22" t="s">
         <v>107</v>
       </c>
       <c r="C22" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>nonMoving,</v>
       </c>
       <c r="E22">
@@ -2423,12 +2937,12 @@
         <v>"INITSINGLE_AFTER_ENT" -&gt; "LOWBATTERY" [label = "(lowbattery)"]</v>
       </c>
     </row>
-    <row r="23" spans="2:27" ht="17">
+    <row r="23" spans="2:28" ht="17">
       <c r="B23" t="s">
         <v>106</v>
       </c>
       <c r="C23" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>startRolling,</v>
       </c>
       <c r="E23">
@@ -2456,13 +2970,17 @@
         <f t="shared" si="12"/>
         <v>"INITSINGLE_AFTER_ENT" -&gt; "WAITFORTHROW" [label = "(timed)"]</v>
       </c>
-    </row>
-    <row r="24" spans="2:27" ht="17">
+      <c r="AB23" t="str">
+        <f t="shared" si="13"/>
+        <v>INITSINGLE_AFTER_ENT--&gt;WAITFORTHROW: timed</v>
+      </c>
+    </row>
+    <row r="24" spans="2:28" ht="17">
       <c r="B24" t="s">
         <v>104</v>
       </c>
       <c r="C24" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>buttonPressed,</v>
       </c>
       <c r="E24">
@@ -2493,13 +3011,17 @@
         <f t="shared" si="12"/>
         <v>"WAITFORTHROW" -&gt; "INITSINGLE_AFTER_ENT" [label = "(entangleStopReceived)"]</v>
       </c>
-    </row>
-    <row r="25" spans="2:27" ht="17">
+      <c r="AB24" t="str">
+        <f t="shared" si="13"/>
+        <v>WAITFORTHROW--&gt;INITSINGLE_AFTER_ENT: entangleStopReceived</v>
+      </c>
+    </row>
+    <row r="25" spans="2:28" ht="17">
       <c r="B25" t="s">
         <v>102</v>
       </c>
       <c r="C25" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>measureXYZ,</v>
       </c>
       <c r="J25" s="16" t="str">
@@ -2511,12 +3033,12 @@
         <v>"" -&gt; "" [label = "()"]</v>
       </c>
     </row>
-    <row r="26" spans="2:27" ht="17">
+    <row r="26" spans="2:28" ht="17">
       <c r="B26" t="s">
         <v>101</v>
       </c>
       <c r="C26" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>measurementFail,</v>
       </c>
       <c r="J26" s="16" t="str">
@@ -2524,12 +3046,12 @@
         <v>{ State::, Trigger::,State:: },</v>
       </c>
     </row>
-    <row r="27" spans="2:27" ht="17">
+    <row r="27" spans="2:28" ht="17">
       <c r="B27" t="s">
         <v>130</v>
       </c>
       <c r="C27" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>closeByAB1,</v>
       </c>
       <c r="J27" s="16"/>
@@ -2538,12 +3060,12 @@
         <v>"IDLE" [style=filled fontcolor=white fillcolor=black];</v>
       </c>
     </row>
-    <row r="28" spans="2:27" ht="17">
+    <row r="28" spans="2:28" ht="17">
       <c r="B28" t="s">
         <v>125</v>
       </c>
       <c r="C28" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>entanglementSucces,</v>
       </c>
       <c r="J28" s="16" t="s">
@@ -2552,58 +3074,66 @@
       <c r="AA28" s="18" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="2:27">
+      <c r="AB28" t="str">
+        <f>AB38&amp;B2</f>
+        <v>[*] --&gt; IDLE</v>
+      </c>
+    </row>
+    <row r="29" spans="2:28">
       <c r="B29" t="s">
         <v>124</v>
       </c>
       <c r="C29" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>entanglementFail,</v>
       </c>
     </row>
-    <row r="30" spans="2:27">
+    <row r="30" spans="2:28">
       <c r="B30" t="s">
         <v>99</v>
       </c>
       <c r="C30" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>lowbattery,</v>
       </c>
       <c r="AA30" s="19" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="2:27">
+    <row r="31" spans="2:28">
       <c r="B31" t="s">
         <v>98</v>
       </c>
       <c r="C31" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>timed,</v>
       </c>
       <c r="AA31" s="18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="32" spans="2:27">
+      <c r="AB31" s="18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="2:28">
       <c r="B32" t="s">
         <v>131</v>
       </c>
       <c r="C32" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>closeByAB2,</v>
       </c>
       <c r="AA32" s="18" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="33" spans="2:27">
+      <c r="AB32" s="18"/>
+    </row>
+    <row r="33" spans="2:28">
       <c r="B33" t="s">
         <v>136</v>
       </c>
       <c r="C33" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>entangleStopReceived,</v>
       </c>
       <c r="J33" t="s">
@@ -2612,8 +3142,11 @@
       <c r="AA33" s="18" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="34" spans="2:27">
+      <c r="AB33" s="18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="2:28">
       <c r="C34" t="str">
         <f>K15&amp;$C$43</f>
         <v>,</v>
@@ -2624,8 +3157,9 @@
       <c r="AA34" s="18" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="2:27">
+      <c r="AB34" s="18"/>
+    </row>
+    <row r="35" spans="2:28">
       <c r="C35" t="str">
         <f>K16&amp;$C$43</f>
         <v>,</v>
@@ -2636,8 +3170,9 @@
       <c r="AA35" s="18" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="36" spans="2:27">
+      <c r="AB35" s="18"/>
+    </row>
+    <row r="36" spans="2:28">
       <c r="C36" t="str">
         <f>K17&amp;$C$43</f>
         <v>,</v>
@@ -2648,19 +3183,25 @@
       <c r="AA36" s="18" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="37" spans="2:27">
+      <c r="AB36" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:28">
       <c r="C37" t="str">
         <f>K18&amp;$C$43</f>
         <v>,</v>
       </c>
     </row>
-    <row r="38" spans="2:27">
+    <row r="38" spans="2:28">
       <c r="C38" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="43" spans="2:27">
+      <c r="AB38" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="2:28">
       <c r="C43" s="18" t="s">
         <v>63</v>
       </c>
@@ -2686,15 +3227,16 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF8556D-36AD-1140-93F1-0F7A5D3D131D}">
-  <dimension ref="B1:Z60"/>
+  <dimension ref="B1:Z68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView topLeftCell="F42" workbookViewId="0">
+      <selection activeCell="O60" sqref="O60:Z65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="13" bestFit="1" customWidth="1"/>
@@ -2894,7 +3436,7 @@
         <v>63</v>
       </c>
       <c r="O4" t="str">
-        <f t="shared" ref="O4:O60" si="2">$M$3</f>
+        <f t="shared" ref="O4:O67" si="2">$M$3</f>
         <v xml:space="preserve"> { </v>
       </c>
       <c r="P4" t="str">
@@ -2938,7 +3480,7 @@
         <v>ScreenStates::N1,</v>
       </c>
       <c r="Z4" t="str">
-        <f t="shared" ref="Z4:Z60" si="4">$M$6</f>
+        <f t="shared" ref="Z4:Z67" si="4">$M$6</f>
         <v>},</v>
       </c>
     </row>
@@ -7350,10 +7892,10 @@
     </row>
     <row r="60" spans="2:26">
       <c r="B60" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -7385,11 +7927,11 @@
       </c>
       <c r="P60" t="str">
         <f t="shared" si="12"/>
-        <v>State::INITMEASURED,</v>
+        <v>State::WAITFORTHROW,</v>
       </c>
       <c r="Q60" t="str">
         <f t="shared" si="13"/>
-        <v>DiceStates::MEASURED_AFTER_ENT,</v>
+        <v>DiceStates::UN_ENTANGLED_AB1,</v>
       </c>
       <c r="R60" t="str">
         <f t="shared" si="14"/>
@@ -7426,13 +7968,418 @@
       <c r="Z60" t="str">
         <f t="shared" si="4"/>
         <v>},</v>
+      </c>
+    </row>
+    <row r="61" spans="2:26">
+      <c r="B61" t="s">
+        <v>48</v>
+      </c>
+      <c r="C61" t="s">
+        <v>169</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" t="s">
+        <v>13</v>
+      </c>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" t="s">
+        <v>16</v>
+      </c>
+      <c r="J61" t="s">
+        <v>16</v>
+      </c>
+      <c r="K61" t="s">
+        <v>16</v>
+      </c>
+      <c r="O61" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> { </v>
+      </c>
+      <c r="P61" t="str">
+        <f t="shared" ref="P61:P66" si="22">B$2&amp;B61&amp;$M$4</f>
+        <v>State::THROWING,</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" ref="Q61:Q66" si="23">C$2&amp;C61&amp;$M$4</f>
+        <v>DiceStates::UN_ENTANGLED_AB1,</v>
+      </c>
+      <c r="R61" t="str">
+        <f t="shared" ref="R61:R66" si="24">D$2&amp;D61&amp;$M$4</f>
+        <v>DiceNumbers::ANY,</v>
+      </c>
+      <c r="S61" t="str">
+        <f t="shared" ref="S61:S66" si="25">E$2&amp;E61&amp;$M$4</f>
+        <v>UpSide::ANY,</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" ref="T61:T66" si="26">F$2&amp;F61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="U61" t="str">
+        <f t="shared" ref="U61:U66" si="27">G$2&amp;G61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="V61" t="str">
+        <f t="shared" ref="V61:V66" si="28">H$2&amp;H61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" ref="W61:W66" si="29">I$2&amp;I61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="X61" t="str">
+        <f t="shared" ref="X61:X66" si="30">J$2&amp;J61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Y61" t="str">
+        <f t="shared" ref="Y61:Y66" si="31">K$2&amp;K61&amp;$M$4</f>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="4"/>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="62" spans="2:26">
+      <c r="B62" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" t="s">
+        <v>169</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" t="s">
+        <v>13</v>
+      </c>
+      <c r="F62" t="s">
+        <v>16</v>
+      </c>
+      <c r="G62" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" t="s">
+        <v>16</v>
+      </c>
+      <c r="J62" t="s">
+        <v>16</v>
+      </c>
+      <c r="K62" t="s">
+        <v>16</v>
+      </c>
+      <c r="O62" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> { </v>
+      </c>
+      <c r="P62" t="str">
+        <f t="shared" si="22"/>
+        <v>State::INITMEASURED,</v>
+      </c>
+      <c r="Q62" t="str">
+        <f t="shared" si="23"/>
+        <v>DiceStates::UN_ENTANGLED_AB1,</v>
+      </c>
+      <c r="R62" t="str">
+        <f t="shared" si="24"/>
+        <v>DiceNumbers::ANY,</v>
+      </c>
+      <c r="S62" t="str">
+        <f t="shared" si="25"/>
+        <v>UpSide::ANY,</v>
+      </c>
+      <c r="T62" t="str">
+        <f t="shared" si="26"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="U62" t="str">
+        <f t="shared" si="27"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="V62" t="str">
+        <f t="shared" si="28"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="W62" t="str">
+        <f t="shared" si="29"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="X62" t="str">
+        <f t="shared" si="30"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Y62" t="str">
+        <f t="shared" si="31"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Z62" t="str">
+        <f t="shared" si="4"/>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="63" spans="2:26">
+      <c r="B63" t="s">
+        <v>46</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" t="s">
+        <v>13</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" t="s">
+        <v>16</v>
+      </c>
+      <c r="J63" t="s">
+        <v>16</v>
+      </c>
+      <c r="K63" t="s">
+        <v>16</v>
+      </c>
+      <c r="O63" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> { </v>
+      </c>
+      <c r="P63" t="str">
+        <f t="shared" si="22"/>
+        <v>State::WAITFORTHROW,</v>
+      </c>
+      <c r="Q63" t="str">
+        <f t="shared" si="23"/>
+        <v>DiceStates::UN_ENTANGLED_AB2,</v>
+      </c>
+      <c r="R63" t="str">
+        <f t="shared" si="24"/>
+        <v>DiceNumbers::ANY,</v>
+      </c>
+      <c r="S63" t="str">
+        <f t="shared" si="25"/>
+        <v>UpSide::ANY,</v>
+      </c>
+      <c r="T63" t="str">
+        <f t="shared" si="26"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="U63" t="str">
+        <f t="shared" si="27"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="V63" t="str">
+        <f t="shared" si="28"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="W63" t="str">
+        <f t="shared" si="29"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="X63" t="str">
+        <f t="shared" si="30"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Y63" t="str">
+        <f t="shared" si="31"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Z63" t="str">
+        <f t="shared" si="4"/>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="64" spans="2:26">
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>170</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" t="s">
+        <v>13</v>
+      </c>
+      <c r="F64" t="s">
+        <v>16</v>
+      </c>
+      <c r="G64" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>16</v>
+      </c>
+      <c r="K64" t="s">
+        <v>16</v>
+      </c>
+      <c r="O64" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> { </v>
+      </c>
+      <c r="P64" t="str">
+        <f t="shared" si="22"/>
+        <v>State::THROWING,</v>
+      </c>
+      <c r="Q64" t="str">
+        <f t="shared" si="23"/>
+        <v>DiceStates::UN_ENTANGLED_AB2,</v>
+      </c>
+      <c r="R64" t="str">
+        <f t="shared" si="24"/>
+        <v>DiceNumbers::ANY,</v>
+      </c>
+      <c r="S64" t="str">
+        <f t="shared" si="25"/>
+        <v>UpSide::ANY,</v>
+      </c>
+      <c r="T64" t="str">
+        <f t="shared" si="26"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="U64" t="str">
+        <f t="shared" si="27"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="V64" t="str">
+        <f t="shared" si="28"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="W64" t="str">
+        <f t="shared" si="29"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="X64" t="str">
+        <f t="shared" si="30"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Y64" t="str">
+        <f t="shared" si="31"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Z64" t="str">
+        <f t="shared" si="4"/>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26">
+      <c r="B65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" t="s">
+        <v>13</v>
+      </c>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve"> { </v>
+      </c>
+      <c r="P65" t="str">
+        <f t="shared" si="22"/>
+        <v>State::INITMEASURED,</v>
+      </c>
+      <c r="Q65" t="str">
+        <f t="shared" si="23"/>
+        <v>DiceStates::UN_ENTANGLED_AB2,</v>
+      </c>
+      <c r="R65" t="str">
+        <f t="shared" si="24"/>
+        <v>DiceNumbers::ANY,</v>
+      </c>
+      <c r="S65" t="str">
+        <f t="shared" si="25"/>
+        <v>UpSide::ANY,</v>
+      </c>
+      <c r="T65" t="str">
+        <f t="shared" si="26"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="U65" t="str">
+        <f t="shared" si="27"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="V65" t="str">
+        <f t="shared" si="28"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="W65" t="str">
+        <f t="shared" si="29"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="X65" t="str">
+        <f t="shared" si="30"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Y65" t="str">
+        <f t="shared" si="31"/>
+        <v>ScreenStates::MIX1TO6,</v>
+      </c>
+      <c r="Z65" t="str">
+        <f t="shared" si="4"/>
+        <v>},</v>
+      </c>
+    </row>
+    <row r="68" spans="2:26">
+      <c r="O68" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="B2:K60" xr:uid="{8FF8556D-36AD-1140-93F1-0F7A5D3D131D}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:E52 D55:E60 E61:E72 D3:E44 B65:B72 C66:C67" xr:uid="{5FF4A1FE-F1A5-0F44-B03F-A172725609A5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D52:E52 B66:B72 C66:C67 D3:E44 D55:E65 E66:E72" xr:uid="{5FF4A1FE-F1A5-0F44-B03F-A172725609A5}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -7445,13 +8392,7 @@
           <x14:formula1>
             <xm:f>'State definitions'!$A$2:$A$14</xm:f>
           </x14:formula1>
-          <xm:sqref>B3:B64</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E7D8C98-D970-0A43-9665-7BDC301B0FA5}">
-          <x14:formula1>
-            <xm:f>'State definitions'!$B$2:$B$27</xm:f>
-          </x14:formula1>
-          <xm:sqref>C3:C65</xm:sqref>
+          <xm:sqref>B3:B65</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{40355900-870D-E841-BBE5-59F10128F006}">
           <x14:formula1>
@@ -7459,6 +8400,12 @@
           </x14:formula1>
           <xm:sqref>F3:K77</xm:sqref>
         </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{2E7D8C98-D970-0A43-9665-7BDC301B0FA5}">
+          <x14:formula1>
+            <xm:f>'State definitions'!$B$3:$B$19</xm:f>
+          </x14:formula1>
+          <xm:sqref>C3:C65</xm:sqref>
+        </x14:dataValidation>
       </x14:dataValidations>
     </ext>
   </extLst>

--- a/Arduino/DiceStateGenerators v2.xlsx
+++ b/Arduino/DiceStateGenerators v2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aernoutvanrossum/Github/Quantum-Dice-by-UTwente/Arduino/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89B5D1E-BD93-8D49-91B4-E9B98F165BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93FCC0BB-23E8-284B-A8DE-DAAE6E1FABB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
+    <workbookView xWindow="11200" yWindow="500" windowWidth="28800" windowHeight="16300" activeTab="1" xr2:uid="{D1CA08E2-D4A8-B548-800B-CB1D259EAD5B}"/>
   </bookViews>
   <sheets>
     <sheet name="State definitions" sheetId="9" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="919" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="966" uniqueCount="192">
   <si>
     <t>requested</t>
   </si>
@@ -502,9 +502,6 @@
     <t>Determination upside (X0, X1, …Z1)</t>
   </si>
   <si>
-    <t>Determination DiceNumber:</t>
-  </si>
-  <si>
     <t>Determination measureAxis (X, Y, Z)</t>
   </si>
   <si>
@@ -563,6 +560,66 @@
   </si>
   <si>
     <t>(UN_)ENTANGLED_AB2</t>
+  </si>
+  <si>
+    <t>Quantum Dice State</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>K</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> --&gt; </t>
   </si>
 </sst>
 </file>
@@ -1046,10 +1103,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B014A776-382F-F441-9C8E-057602A49307}">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O32" sqref="O32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1058,11 +1115,12 @@
     <col min="2" max="2" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="45" customWidth="1"/>
-    <col min="11" max="11" width="23.1640625" customWidth="1"/>
-    <col min="12" max="12" width="49.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.83203125" customWidth="1"/>
+    <col min="12" max="13" width="23.1640625" customWidth="1"/>
+    <col min="14" max="14" width="49.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="20" customFormat="1">
+    <row r="1" spans="1:14" s="20" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
@@ -1078,11 +1136,11 @@
       <c r="E1" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="L1" t="s">
+      <c r="N1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1104,15 +1162,15 @@
       <c r="J2" t="s">
         <v>149</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>43</v>
       </c>
-      <c r="L2" t="str">
-        <f>I2&amp;" --&gt; "&amp;K2&amp;" :"&amp;J2</f>
+      <c r="N2" t="str">
+        <f>I2&amp;" --&gt; "&amp;L2&amp;" :"&amp;J2</f>
         <v>CLASSIC --&gt; SINGLE :quantum button</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>44</v>
       </c>
@@ -1134,15 +1192,15 @@
       <c r="J3" t="s">
         <v>144</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>126</v>
       </c>
-      <c r="L3" t="str">
-        <f t="shared" ref="L3:L16" si="0">I3&amp;" --&gt; "&amp;K3&amp;" :"&amp;J3</f>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N16" si="0">I3&amp;" --&gt; "&amp;L3&amp;" :"&amp;J3</f>
         <v>SINGLE --&gt; ENTANGLED_AB1 :AB1 closeby</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>129</v>
       </c>
@@ -1164,15 +1222,15 @@
       <c r="J4" t="s">
         <v>145</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>127</v>
       </c>
-      <c r="L4" t="str">
+      <c r="N4" t="str">
         <f t="shared" si="0"/>
         <v>SINGLE --&gt; ENTANGLED_AB2 :AB2 closeby</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>46</v>
       </c>
@@ -1194,15 +1252,15 @@
       <c r="J5" t="s">
         <v>145</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>134</v>
       </c>
-      <c r="L5" t="str">
+      <c r="N5" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB1 --&gt; MEASURED_AFTER_ENT :AB2 closeby</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>48</v>
       </c>
@@ -1224,15 +1282,15 @@
       <c r="J6" t="s">
         <v>144</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>134</v>
       </c>
-      <c r="L6" t="str">
+      <c r="N6" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB2 --&gt; MEASURED_AFTER_ENT :AB1 closeby</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -1254,15 +1312,15 @@
       <c r="J7" t="s">
         <v>146</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>45</v>
       </c>
-      <c r="L7" t="str">
+      <c r="N7" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB1 --&gt; MEASURED :rolling and stopped</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>17</v>
       </c>
@@ -1284,20 +1342,20 @@
       <c r="J8" t="s">
         <v>45</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>45</v>
       </c>
-      <c r="L8" t="str">
+      <c r="N8" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB2 --&gt; MEASURED :MEASURED</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:14">
       <c r="A9" s="14" t="s">
         <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C9" t="s">
         <v>58</v>
@@ -1314,20 +1372,20 @@
       <c r="J9" t="s">
         <v>147</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>43</v>
       </c>
-      <c r="L9" t="str">
+      <c r="N9" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB1 --&gt; SINGLE :time-out</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>128</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C10" t="s">
         <v>59</v>
@@ -1341,15 +1399,15 @@
       <c r="J10" t="s">
         <v>148</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>43</v>
       </c>
-      <c r="L10" t="str">
+      <c r="N10" t="str">
         <f t="shared" si="0"/>
         <v>ENTANGLED_AB2 --&gt; SINGLE :time_out</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="A11" s="14" t="s">
         <v>135</v>
       </c>
@@ -1365,15 +1423,15 @@
       <c r="J11" t="s">
         <v>146</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>45</v>
       </c>
-      <c r="L11" t="str">
+      <c r="N11" t="str">
         <f t="shared" si="0"/>
         <v>MEASURED_AFTER_ENT --&gt; MEASURED :rolling and stopped</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="B12" t="s">
         <v>47</v>
       </c>
@@ -1389,15 +1447,15 @@
       <c r="J12" t="s">
         <v>146</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>45</v>
       </c>
-      <c r="L12" t="str">
+      <c r="N12" t="str">
         <f t="shared" si="0"/>
         <v>SINGLE --&gt; MEASURED :rolling and stopped</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="C13" t="s">
         <v>69</v>
       </c>
@@ -1410,15 +1468,15 @@
       <c r="J13" t="s">
         <v>149</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>43</v>
       </c>
-      <c r="L13" t="str">
+      <c r="N13" t="str">
         <f t="shared" si="0"/>
         <v>MEASURED --&gt; SINGLE :quantum button</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="E14" t="s">
         <v>51</v>
       </c>
@@ -1428,15 +1486,15 @@
       <c r="J14" t="s">
         <v>144</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>126</v>
       </c>
-      <c r="L14" t="str">
+      <c r="N14" t="str">
         <f t="shared" si="0"/>
         <v>MEASURED --&gt; ENTANGLED_AB1 :AB1 closeby</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="E15" t="s">
         <v>52</v>
       </c>
@@ -1446,15 +1504,15 @@
       <c r="J15" t="s">
         <v>145</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>127</v>
       </c>
-      <c r="L15" t="str">
+      <c r="N15" t="str">
         <f t="shared" si="0"/>
         <v>MEASURED --&gt; ENTANGLED_AB2 :AB2 closeby</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="E16" t="s">
         <v>53</v>
       </c>
@@ -1464,47 +1522,47 @@
       <c r="J16" t="s">
         <v>146</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>45</v>
       </c>
-      <c r="L16" t="str">
+      <c r="N16" t="str">
         <f t="shared" si="0"/>
         <v>MEASURED --&gt; MEASURED :rolling and stopped</v>
       </c>
     </row>
-    <row r="17" spans="5:13">
+    <row r="17" spans="5:15">
       <c r="E17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="5:13">
+    <row r="18" spans="5:15">
       <c r="E18" t="s">
         <v>55</v>
       </c>
-      <c r="L18" t="str">
-        <f>L20&amp;I2</f>
+      <c r="N18" t="str">
+        <f>N20&amp;I2</f>
         <v>[*] --&gt; CLASSIC</v>
       </c>
     </row>
-    <row r="19" spans="5:13">
+    <row r="19" spans="5:15">
       <c r="E19" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="5:13">
+    <row r="20" spans="5:15">
       <c r="E20" t="s">
         <v>41</v>
       </c>
-      <c r="L20" t="s">
+      <c r="N20" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="5:13">
+    <row r="21" spans="5:15">
       <c r="E21" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="5:13">
+    <row r="22" spans="5:15">
       <c r="E22" t="s">
         <v>137</v>
       </c>
@@ -1512,138 +1570,295 @@
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="5:13">
+    <row r="23" spans="5:15">
+      <c r="H23" t="s">
+        <v>173</v>
+      </c>
       <c r="I23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="24" spans="5:13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="24" spans="5:15">
       <c r="I24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="25" spans="5:13">
+    <row r="25" spans="5:15">
       <c r="I25" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="26" spans="5:15">
+      <c r="I26" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="26" spans="5:13">
-      <c r="I26" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="27" spans="5:13">
+    <row r="27" spans="5:15">
       <c r="I27" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="5:13">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="28" spans="5:15">
       <c r="J28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="29" spans="5:13">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="29" spans="5:15">
+      <c r="I29" t="s">
+        <v>174</v>
+      </c>
       <c r="J29" t="s">
         <v>43</v>
       </c>
-      <c r="K29" s="18" t="s">
+      <c r="L29" s="18" t="s">
         <v>141</v>
       </c>
-      <c r="L29" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="30" spans="5:13">
+      <c r="M29" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="N29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="30" spans="5:15">
+      <c r="I30" t="s">
+        <v>175</v>
+      </c>
       <c r="J30" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="K30" t="s">
-        <v>154</v>
+      <c r="K30" s="21" t="s">
+        <v>179</v>
       </c>
       <c r="L30" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="31" spans="5:13">
+        <v>153</v>
+      </c>
+      <c r="M30" t="s">
+        <v>188</v>
+      </c>
+      <c r="N30" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="31" spans="5:15">
       <c r="K31" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="L31" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="32" spans="5:13">
+      <c r="M31" t="s">
+        <v>187</v>
+      </c>
+      <c r="N31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="5:15">
+      <c r="I32" t="s">
+        <v>176</v>
+      </c>
       <c r="J32" t="s">
+        <v>170</v>
+      </c>
+      <c r="K32" t="s">
+        <v>181</v>
+      </c>
+      <c r="L32" t="s">
+        <v>154</v>
+      </c>
+      <c r="M32" t="s">
+        <v>189</v>
+      </c>
+      <c r="N32" t="s">
+        <v>157</v>
+      </c>
+      <c r="O32" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16">
+      <c r="K33" t="s">
+        <v>182</v>
+      </c>
+      <c r="L33" t="s">
+        <v>162</v>
+      </c>
+      <c r="M33" t="s">
+        <v>187</v>
+      </c>
+      <c r="N33" t="s">
+        <v>160</v>
+      </c>
+      <c r="O33" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16">
+      <c r="I34" t="s">
+        <v>177</v>
+      </c>
+      <c r="J34" t="s">
         <v>171</v>
       </c>
-      <c r="K32" t="s">
-        <v>155</v>
-      </c>
-      <c r="L32" t="s">
-        <v>158</v>
-      </c>
-      <c r="M32" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="33" spans="10:14">
-      <c r="K33" t="s">
+      <c r="K34" t="s">
+        <v>183</v>
+      </c>
+      <c r="L34" t="s">
+        <v>154</v>
+      </c>
+      <c r="M34" t="s">
+        <v>189</v>
+      </c>
+      <c r="N34" t="s">
+        <v>157</v>
+      </c>
+      <c r="O34" t="s">
         <v>163</v>
       </c>
-      <c r="L33" t="s">
-        <v>161</v>
-      </c>
-      <c r="M33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="10:14">
-      <c r="J34" t="s">
-        <v>172</v>
-      </c>
-      <c r="K34" t="s">
-        <v>155</v>
-      </c>
-      <c r="L34" t="s">
-        <v>158</v>
-      </c>
-      <c r="M34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="10:14">
+    </row>
+    <row r="35" spans="9:16">
       <c r="K35" t="s">
+        <v>184</v>
+      </c>
+      <c r="L35" t="s">
+        <v>162</v>
+      </c>
+      <c r="M35" t="s">
+        <v>187</v>
+      </c>
+      <c r="N35" t="s">
+        <v>160</v>
+      </c>
+      <c r="O35" t="s">
         <v>163</v>
       </c>
-      <c r="L35" t="s">
-        <v>161</v>
-      </c>
-      <c r="M35" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="36" spans="10:14">
+    </row>
+    <row r="36" spans="9:16">
+      <c r="I36" t="s">
+        <v>178</v>
+      </c>
       <c r="J36" t="s">
         <v>134</v>
       </c>
       <c r="K36" t="s">
+        <v>185</v>
+      </c>
+      <c r="L36" t="s">
+        <v>165</v>
+      </c>
+      <c r="M36" t="s">
+        <v>187</v>
+      </c>
+      <c r="N36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16">
+      <c r="K37" t="s">
+        <v>186</v>
+      </c>
+      <c r="L37" t="s">
         <v>166</v>
       </c>
-      <c r="L36" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="37" spans="10:14">
-      <c r="K37" t="s">
+      <c r="M37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37" t="s">
         <v>167</v>
       </c>
-      <c r="L37" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="38" spans="10:14">
-      <c r="N38" t="s">
-        <v>165</v>
+    </row>
+    <row r="38" spans="9:16">
+      <c r="P38" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="39" spans="9:16">
+      <c r="K39" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M39" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="40" spans="9:16">
+      <c r="K40" t="s">
+        <v>180</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M40" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="41" spans="9:16">
+      <c r="K41" t="s">
+        <v>181</v>
+      </c>
+      <c r="L41" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M41" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42" spans="9:16">
+      <c r="K42" t="s">
+        <v>182</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M42" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="9:16">
+      <c r="K43" t="s">
+        <v>183</v>
+      </c>
+      <c r="L43" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M43" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44" spans="9:16">
+      <c r="K44" t="s">
+        <v>184</v>
+      </c>
+      <c r="L44" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M44" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="45" spans="9:16">
+      <c r="K45" t="s">
+        <v>185</v>
+      </c>
+      <c r="L45" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M45" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="46" spans="9:16">
+      <c r="K46" t="s">
+        <v>186</v>
+      </c>
+      <c r="L46" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="M46" t="s">
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -1656,8 +1871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D527CBE5-F674-FD45-BE3F-A703ADFEAAA5}">
   <dimension ref="A1:AB43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -7895,7 +8110,7 @@
         <v>46</v>
       </c>
       <c r="C60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -7975,7 +8190,7 @@
         <v>48</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" t="s">
         <v>13</v>
@@ -8055,7 +8270,7 @@
         <v>49</v>
       </c>
       <c r="C62" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D62" t="s">
         <v>13</v>
@@ -8135,7 +8350,7 @@
         <v>46</v>
       </c>
       <c r="C63" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
         <v>13</v>
@@ -8215,7 +8430,7 @@
         <v>48</v>
       </c>
       <c r="C64" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -8295,7 +8510,7 @@
         <v>49</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D65" t="s">
         <v>13</v>
